--- a/docs/texts/how_samuel.xlsx
+++ b/docs/texts/how_samuel.xlsx
@@ -1490,8 +1490,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1597,7 +1598,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1618,8 +1619,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1647,6 +1656,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1677,7 +1695,7 @@
   <dimension ref="A1:AB859"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1760,7 +1778,7 @@
       <c r="G2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1775,7 +1793,7 @@
       <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="4"/>
@@ -1802,7 +1820,7 @@
       <c r="G3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1815,7 +1833,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="4"/>
@@ -1842,7 +1860,7 @@
       <c r="G4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1857,7 +1875,7 @@
       <c r="L4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="4"/>
@@ -1884,7 +1902,7 @@
       <c r="G5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1899,7 +1917,7 @@
       <c r="L5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="N5" s="4"/>
@@ -1926,7 +1944,7 @@
       <c r="G6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1939,7 +1957,7 @@
         <v>37</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="4"/>
@@ -1966,7 +1984,7 @@
       <c r="G7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -1981,7 +1999,7 @@
       <c r="L7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="6" t="s">
         <v>43</v>
       </c>
       <c r="N7" s="4"/>
@@ -2000,7 +2018,7 @@
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2031,7 @@
       <c r="L8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N8" s="4"/>
@@ -2040,7 +2058,7 @@
       <c r="G9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -2055,7 +2073,7 @@
       <c r="L9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="N9" s="4"/>
@@ -2082,7 +2100,7 @@
       <c r="G10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="5" t="n">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -2097,7 +2115,7 @@
       <c r="L10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="N10" s="4"/>
@@ -2124,7 +2142,7 @@
       <c r="G11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -2133,11 +2151,11 @@
       <c r="J11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N11" s="4"/>
@@ -2156,11 +2174,11 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -2169,7 +2187,7 @@
       <c r="L12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="6" t="s">
         <v>60</v>
       </c>
       <c r="N12" s="4"/>
@@ -2196,7 +2214,7 @@
       <c r="G13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="5" t="n">
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -2209,7 +2227,7 @@
         <v>37</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="6" t="s">
         <v>63</v>
       </c>
       <c r="N13" s="4"/>
@@ -2236,7 +2254,7 @@
       <c r="G14" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="5" t="n">
         <v>11</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -2251,7 +2269,7 @@
       <c r="L14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N14" s="4"/>
@@ -2278,7 +2296,7 @@
       <c r="G15" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="5" t="n">
         <v>12</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -2293,7 +2311,7 @@
       <c r="L15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N15" s="4"/>
@@ -2320,7 +2338,7 @@
       <c r="G16" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="5" t="n">
         <v>13</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -2335,7 +2353,7 @@
       <c r="L16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="N16" s="4"/>
@@ -2362,7 +2380,7 @@
       <c r="G17" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="5" t="n">
         <v>14</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -2375,7 +2393,7 @@
         <v>24</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N17" s="4"/>
@@ -2394,7 +2412,7 @@
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="4" t="s">
         <v>72</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>24</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="6" t="s">
         <v>76</v>
       </c>
       <c r="N18" s="4"/>
@@ -2432,7 +2450,7 @@
       <c r="G19" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="5" t="n">
         <v>15</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -2447,7 +2465,7 @@
       <c r="L19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="6" t="s">
         <v>80</v>
       </c>
       <c r="N19" s="4"/>
@@ -2474,7 +2492,7 @@
       <c r="G20" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="5" t="n">
         <v>16</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -2489,7 +2507,7 @@
       <c r="L20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="6" t="s">
         <v>82</v>
       </c>
       <c r="N20" s="4"/>
@@ -2516,7 +2534,7 @@
       <c r="G21" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="5" t="n">
         <v>17</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -2531,7 +2549,7 @@
       <c r="L21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="6" t="s">
         <v>86</v>
       </c>
       <c r="N21" s="4"/>
@@ -2558,7 +2576,7 @@
       <c r="G22" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="5" t="n">
         <v>18</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -2573,7 +2591,7 @@
       <c r="L22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="6" t="s">
         <v>90</v>
       </c>
       <c r="N22" s="4"/>
@@ -2600,7 +2618,7 @@
       <c r="G23" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="5" t="n">
         <v>19</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -2615,7 +2633,7 @@
       <c r="L23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="6" t="s">
         <v>93</v>
       </c>
       <c r="N23" s="4"/>
@@ -2642,7 +2660,7 @@
       <c r="G24" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -2657,7 +2675,7 @@
       <c r="L24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="6" t="s">
         <v>94</v>
       </c>
       <c r="N24" s="4"/>
@@ -2684,7 +2702,7 @@
       <c r="G25" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="5" t="n">
         <v>21</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -2699,7 +2717,7 @@
       <c r="L25" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="6" t="s">
         <v>98</v>
       </c>
       <c r="N25" s="4"/>
@@ -2726,7 +2744,7 @@
       <c r="G26" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="5" t="n">
         <v>22</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -2741,7 +2759,7 @@
       <c r="L26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="6" t="s">
         <v>103</v>
       </c>
       <c r="N26" s="4"/>
@@ -2768,7 +2786,7 @@
       <c r="G27" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="5" t="n">
         <v>23</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -2783,7 +2801,7 @@
       <c r="L27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="6" t="s">
         <v>106</v>
       </c>
       <c r="N27" s="4"/>
@@ -2802,7 +2820,7 @@
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="4" t="s">
         <v>104</v>
       </c>
@@ -2815,7 +2833,7 @@
       <c r="L28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="6" t="s">
         <v>54</v>
       </c>
       <c r="N28" s="4"/>
@@ -2842,7 +2860,7 @@
       <c r="G29" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="5" t="n">
         <v>24</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -2855,7 +2873,7 @@
         <v>24</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N29" s="4"/>
@@ -2874,7 +2892,7 @@
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="4" t="s">
         <v>108</v>
       </c>
@@ -2887,7 +2905,7 @@
       <c r="L30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="6" t="s">
         <v>60</v>
       </c>
       <c r="N30" s="4"/>
@@ -2914,7 +2932,7 @@
       <c r="G31" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="5" t="n">
         <v>25</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -2929,7 +2947,7 @@
       <c r="L31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="6" t="s">
         <v>115</v>
       </c>
       <c r="N31" s="4"/>
@@ -2956,7 +2974,7 @@
       <c r="G32" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="5" t="n">
         <v>26</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -2971,7 +2989,7 @@
       <c r="L32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="6" t="s">
         <v>118</v>
       </c>
       <c r="N32" s="4"/>
@@ -2990,7 +3008,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="4" t="s">
         <v>116</v>
       </c>
@@ -3003,7 +3021,7 @@
       <c r="L33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="6" t="s">
         <v>121</v>
       </c>
       <c r="N33" s="4"/>
@@ -3030,7 +3048,7 @@
       <c r="G34" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="5" t="n">
         <v>27</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -3045,7 +3063,7 @@
       <c r="L34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="6" t="s">
         <v>63</v>
       </c>
       <c r="N34" s="4"/>
@@ -3064,7 +3082,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="4" t="s">
         <v>122</v>
       </c>
@@ -3077,7 +3095,7 @@
       <c r="L35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N35" s="4"/>
@@ -3104,7 +3122,7 @@
       <c r="G36" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="5" t="n">
         <v>28</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -3119,7 +3137,7 @@
       <c r="L36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="4"/>
@@ -3146,7 +3164,7 @@
       <c r="G37" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="5" t="n">
         <v>29</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -3161,7 +3179,7 @@
       <c r="L37" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="4"/>
@@ -3188,7 +3206,7 @@
       <c r="G38" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="5" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -3201,7 +3219,7 @@
         <v>24</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N38" s="4"/>
@@ -3220,7 +3238,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="4" t="s">
         <v>129</v>
       </c>
@@ -3233,7 +3251,7 @@
       <c r="L39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="6" t="s">
         <v>130</v>
       </c>
       <c r="N39" s="4"/>
@@ -3260,7 +3278,7 @@
       <c r="G40" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="5" t="n">
         <v>31</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -3275,7 +3293,7 @@
       <c r="L40" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="6" t="s">
         <v>94</v>
       </c>
       <c r="N40" s="4"/>
@@ -3302,7 +3320,7 @@
       <c r="G41" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="5" t="n">
         <v>32</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -3315,7 +3333,7 @@
         <v>134</v>
       </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="6" t="s">
         <v>135</v>
       </c>
       <c r="N41" s="4"/>
@@ -3342,7 +3360,7 @@
       <c r="G42" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="5" t="n">
         <v>33</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -3357,7 +3375,7 @@
       <c r="L42" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="6" t="s">
         <v>139</v>
       </c>
       <c r="N42" s="4"/>
@@ -3376,7 +3394,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="4" t="s">
         <v>136</v>
       </c>
@@ -3389,7 +3407,7 @@
       <c r="L43" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="6" t="s">
         <v>121</v>
       </c>
       <c r="N43" s="4"/>
@@ -3416,7 +3434,7 @@
       <c r="G44" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="5" t="n">
         <v>34</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -3429,7 +3447,7 @@
         <v>134</v>
       </c>
       <c r="L44" s="4"/>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="6" t="s">
         <v>142</v>
       </c>
       <c r="N44" s="4"/>
@@ -3456,7 +3474,7 @@
       <c r="G45" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="5" t="n">
         <v>35</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -3469,7 +3487,7 @@
         <v>37</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="6" t="s">
         <v>145</v>
       </c>
       <c r="N45" s="4"/>
@@ -3488,7 +3506,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="4" t="s">
         <v>143</v>
       </c>
@@ -3501,7 +3519,7 @@
       <c r="L46" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="6" t="s">
         <v>148</v>
       </c>
       <c r="N46" s="4"/>
@@ -3520,7 +3538,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="4" t="s">
         <v>143</v>
       </c>
@@ -3533,7 +3551,7 @@
       <c r="L47" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="6" t="s">
         <v>121</v>
       </c>
       <c r="N47" s="4"/>
@@ -3560,7 +3578,7 @@
       <c r="G48" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="H48" s="4" t="n">
+      <c r="H48" s="5" t="n">
         <v>36</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -3573,7 +3591,7 @@
         <v>24</v>
       </c>
       <c r="L48" s="4"/>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N48" s="4"/>
@@ -3592,7 +3610,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="4" t="s">
         <v>149</v>
       </c>
@@ -3605,7 +3623,7 @@
       <c r="L49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="6" t="s">
         <v>151</v>
       </c>
       <c r="N49" s="4"/>
@@ -3632,7 +3650,7 @@
       <c r="G50" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="H50" s="4" t="n">
+      <c r="H50" s="5" t="n">
         <v>37</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -3645,7 +3663,7 @@
         <v>24</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="6" t="s">
         <v>153</v>
       </c>
       <c r="N50" s="4"/>
@@ -3672,7 +3690,7 @@
       <c r="G51" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="H51" s="4" t="n">
+      <c r="H51" s="5" t="n">
         <v>38</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -3687,7 +3705,7 @@
       <c r="L51" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="6" t="s">
         <v>156</v>
       </c>
       <c r="N51" s="4"/>
@@ -3714,7 +3732,7 @@
       <c r="G52" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="H52" s="4" t="n">
+      <c r="H52" s="5" t="n">
         <v>39</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -3729,7 +3747,7 @@
       <c r="L52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="6" t="s">
         <v>159</v>
       </c>
       <c r="N52" s="4"/>
@@ -3756,7 +3774,7 @@
       <c r="G53" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="H53" s="5" t="n">
         <v>40</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -3769,7 +3787,7 @@
         <v>37</v>
       </c>
       <c r="L53" s="4"/>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="6" t="s">
         <v>162</v>
       </c>
       <c r="N53" s="4"/>
@@ -3788,7 +3806,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="4" t="s">
         <v>160</v>
       </c>
@@ -3801,7 +3819,7 @@
       <c r="L54" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="6" t="s">
         <v>121</v>
       </c>
       <c r="N54" s="4"/>
@@ -3828,7 +3846,7 @@
       <c r="G55" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="H55" s="4" t="n">
+      <c r="H55" s="5" t="n">
         <v>41</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -3841,7 +3859,7 @@
         <v>37</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="6" t="s">
         <v>93</v>
       </c>
       <c r="N55" s="4"/>
@@ -3868,7 +3886,7 @@
       <c r="G56" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="H56" s="4" t="n">
+      <c r="H56" s="5" t="n">
         <v>42</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -3883,7 +3901,7 @@
       <c r="L56" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="6" t="s">
         <v>98</v>
       </c>
       <c r="N56" s="4"/>
@@ -3910,7 +3928,7 @@
       <c r="G57" s="4" t="n">
         <v>43</v>
       </c>
-      <c r="H57" s="4" t="n">
+      <c r="H57" s="5" t="n">
         <v>43</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -3925,7 +3943,7 @@
       <c r="L57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="6" t="s">
         <v>86</v>
       </c>
       <c r="N57" s="4"/>
@@ -3952,7 +3970,7 @@
       <c r="G58" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="H58" s="4" t="n">
+      <c r="H58" s="5" t="n">
         <v>44</v>
       </c>
       <c r="I58" s="4" t="s">
@@ -3965,7 +3983,7 @@
         <v>24</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N58" s="4"/>
@@ -3984,7 +4002,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="5"/>
       <c r="I59" s="4" t="s">
         <v>165</v>
       </c>
@@ -3997,7 +4015,7 @@
       <c r="L59" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="6" t="s">
         <v>168</v>
       </c>
       <c r="N59" s="4"/>
@@ -4016,7 +4034,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="5"/>
       <c r="I60" s="4" t="s">
         <v>165</v>
       </c>
@@ -4029,7 +4047,7 @@
       <c r="L60" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N60" s="4"/>
@@ -4056,7 +4074,7 @@
       <c r="G61" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="H61" s="4" t="n">
+      <c r="H61" s="5" t="n">
         <v>45</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -4069,7 +4087,7 @@
         <v>24</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N61" s="4"/>
@@ -4088,7 +4106,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="H62" s="5"/>
       <c r="I62" s="4" t="s">
         <v>169</v>
       </c>
@@ -4101,7 +4119,7 @@
       <c r="L62" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="6" t="s">
         <v>151</v>
       </c>
       <c r="N62" s="4"/>
@@ -4128,7 +4146,7 @@
       <c r="G63" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="H63" s="4" t="n">
+      <c r="H63" s="5" t="n">
         <v>46</v>
       </c>
       <c r="I63" s="4" t="s">
@@ -4141,7 +4159,7 @@
         <v>172</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="6" t="s">
         <v>173</v>
       </c>
       <c r="N63" s="4"/>
@@ -4168,7 +4186,7 @@
       <c r="G64" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="H64" s="4" t="n">
+      <c r="H64" s="5" t="n">
         <v>47</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -4181,7 +4199,7 @@
         <v>24</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N64" s="4"/>
@@ -4200,7 +4218,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="4" t="s">
         <v>174</v>
       </c>
@@ -4213,7 +4231,7 @@
       <c r="L65" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="6" t="s">
         <v>130</v>
       </c>
       <c r="N65" s="4"/>
@@ -4240,7 +4258,7 @@
       <c r="G66" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="H66" s="4" t="n">
+      <c r="H66" s="5" t="n">
         <v>48</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -4253,7 +4271,7 @@
         <v>37</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="6" t="s">
         <v>176</v>
       </c>
       <c r="N66" s="4"/>
@@ -4272,7 +4290,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="4" t="s">
         <v>175</v>
       </c>
@@ -4285,7 +4303,7 @@
       <c r="L67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="6" t="s">
         <v>178</v>
       </c>
       <c r="N67" s="4"/>
@@ -4312,7 +4330,7 @@
       <c r="G68" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="H68" s="4" t="n">
+      <c r="H68" s="5" t="n">
         <v>49</v>
       </c>
       <c r="I68" s="4" t="s">
@@ -4327,7 +4345,7 @@
       <c r="L68" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="6" t="s">
         <v>182</v>
       </c>
       <c r="N68" s="4"/>
@@ -4354,7 +4372,7 @@
       <c r="G69" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="H69" s="4" t="n">
+      <c r="H69" s="5" t="n">
         <v>50</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -4367,7 +4385,7 @@
         <v>134</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="6" t="s">
         <v>135</v>
       </c>
       <c r="N69" s="4"/>
@@ -4394,7 +4412,7 @@
       <c r="G70" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="H70" s="4" t="n">
+      <c r="H70" s="5" t="n">
         <v>51</v>
       </c>
       <c r="I70" s="4" t="s">
@@ -4409,7 +4427,7 @@
       <c r="L70" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="6" t="s">
         <v>186</v>
       </c>
       <c r="N70" s="4"/>
@@ -4436,7 +4454,7 @@
       <c r="G71" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="H71" s="4" t="n">
+      <c r="H71" s="5" t="n">
         <v>52</v>
       </c>
       <c r="I71" s="4" t="s">
@@ -4449,7 +4467,7 @@
         <v>37</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="5"/>
+      <c r="M71" s="6"/>
       <c r="N71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4466,7 +4484,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="4" t="s">
         <v>187</v>
       </c>
@@ -4479,7 +4497,7 @@
       <c r="L72" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="M72" s="6" t="s">
         <v>191</v>
       </c>
       <c r="N72" s="4"/>
@@ -4498,7 +4516,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="5"/>
       <c r="I73" s="4" t="s">
         <v>187</v>
       </c>
@@ -4511,7 +4529,7 @@
       <c r="L73" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="6" t="s">
         <v>194</v>
       </c>
       <c r="N73" s="4"/>
@@ -4538,7 +4556,7 @@
       <c r="G74" s="4" t="n">
         <v>53</v>
       </c>
-      <c r="H74" s="4" t="n">
+      <c r="H74" s="5" t="n">
         <v>53</v>
       </c>
       <c r="I74" s="4" t="s">
@@ -4551,7 +4569,7 @@
         <v>24</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N74" s="4"/>
@@ -4570,7 +4588,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="H75" s="5"/>
       <c r="I75" s="4" t="s">
         <v>195</v>
       </c>
@@ -4581,7 +4599,7 @@
         <v>134</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="6" t="s">
         <v>135</v>
       </c>
       <c r="N75" s="4"/>
@@ -4608,7 +4626,7 @@
       <c r="G76" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="H76" s="4" t="n">
+      <c r="H76" s="5" t="n">
         <v>54</v>
       </c>
       <c r="I76" s="4" t="s">
@@ -4623,7 +4641,7 @@
       <c r="L76" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="6" t="s">
         <v>199</v>
       </c>
       <c r="N76" s="4"/>
@@ -4650,7 +4668,7 @@
       <c r="G77" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="H77" s="4" t="n">
+      <c r="H77" s="5" t="n">
         <v>55</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -4665,7 +4683,7 @@
       <c r="L77" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="6" t="s">
         <v>203</v>
       </c>
       <c r="N77" s="4"/>
@@ -4684,7 +4702,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+      <c r="H78" s="5"/>
       <c r="I78" s="4" t="s">
         <v>200</v>
       </c>
@@ -4697,7 +4715,7 @@
       <c r="L78" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="6" t="s">
         <v>194</v>
       </c>
       <c r="N78" s="4"/>
@@ -4724,7 +4742,7 @@
       <c r="G79" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="H79" s="4" t="n">
+      <c r="H79" s="5" t="n">
         <v>56</v>
       </c>
       <c r="I79" s="4" t="s">
@@ -4737,7 +4755,7 @@
         <v>24</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="5" t="s">
+      <c r="M79" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N79" s="4"/>
@@ -4756,7 +4774,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="H80" s="5"/>
       <c r="I80" s="4" t="s">
         <v>195</v>
       </c>
@@ -4767,7 +4785,7 @@
         <v>134</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="6" t="s">
         <v>135</v>
       </c>
       <c r="N80" s="4"/>
@@ -4794,7 +4812,7 @@
       <c r="G81" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="H81" s="4" t="n">
+      <c r="H81" s="5" t="n">
         <v>57</v>
       </c>
       <c r="I81" s="4" t="s">
@@ -4809,7 +4827,7 @@
       <c r="L81" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="M81" s="6" t="s">
         <v>206</v>
       </c>
       <c r="N81" s="4"/>
@@ -4836,7 +4854,7 @@
       <c r="G82" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="H82" s="4" t="n">
+      <c r="H82" s="5" t="n">
         <v>58</v>
       </c>
       <c r="I82" s="4" t="s">
@@ -4851,7 +4869,7 @@
       <c r="L82" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="6" t="s">
         <v>210</v>
       </c>
       <c r="N82" s="4"/>
@@ -4878,7 +4896,7 @@
       <c r="G83" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="H83" s="4" t="n">
+      <c r="H83" s="5" t="n">
         <v>59</v>
       </c>
       <c r="I83" s="4" t="s">
@@ -4893,7 +4911,7 @@
       <c r="L83" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="M83" s="5" t="s">
+      <c r="M83" s="6" t="s">
         <v>214</v>
       </c>
       <c r="N83" s="4"/>
@@ -4920,7 +4938,7 @@
       <c r="G84" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="H84" s="4" t="n">
+      <c r="H84" s="5" t="n">
         <v>60</v>
       </c>
       <c r="I84" s="4" t="s">
@@ -4933,7 +4951,7 @@
         <v>37</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="5"/>
+      <c r="M84" s="6"/>
       <c r="N84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,7 +4968,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="H85" s="5"/>
       <c r="I85" s="4" t="s">
         <v>215</v>
       </c>
@@ -4963,7 +4981,7 @@
       <c r="L85" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="6" t="s">
         <v>194</v>
       </c>
       <c r="N85" s="4"/>
@@ -4990,7 +5008,7 @@
       <c r="G86" s="4" t="n">
         <v>61</v>
       </c>
-      <c r="H86" s="4" t="n">
+      <c r="H86" s="5" t="n">
         <v>61</v>
       </c>
       <c r="I86" s="4" t="s">
@@ -5003,7 +5021,7 @@
         <v>37</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="5" t="s">
+      <c r="M86" s="6" t="s">
         <v>145</v>
       </c>
       <c r="N86" s="4"/>
@@ -5022,11 +5040,11 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="H87" s="5"/>
       <c r="I87" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J87" s="6" t="s">
+      <c r="J87" s="8" t="s">
         <v>218</v>
       </c>
       <c r="K87" s="4" t="s">
@@ -5035,24 +5053,24 @@
       <c r="L87" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="6" t="s">
         <v>219</v>
       </c>
       <c r="N87" s="4"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="8"/>
-      <c r="Y87" s="8"/>
-      <c r="Z87" s="8"/>
-      <c r="AA87" s="8"/>
-      <c r="AB87" s="8"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+      <c r="Z87" s="10"/>
+      <c r="AA87" s="10"/>
+      <c r="AB87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
@@ -5076,7 +5094,7 @@
       <c r="G88" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="H88" s="4" t="n">
+      <c r="H88" s="5" t="n">
         <v>62</v>
       </c>
       <c r="I88" s="4" t="s">
@@ -5091,7 +5109,7 @@
       <c r="L88" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="M88" s="6" t="s">
         <v>86</v>
       </c>
       <c r="N88" s="4"/>
@@ -5118,7 +5136,7 @@
       <c r="G89" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="H89" s="4" t="n">
+      <c r="H89" s="5" t="n">
         <v>63</v>
       </c>
       <c r="I89" s="4" t="s">
@@ -5131,7 +5149,7 @@
         <v>24</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="5" t="s">
+      <c r="M89" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N89" s="4"/>
@@ -5150,7 +5168,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="H90" s="5"/>
       <c r="I90" s="4" t="s">
         <v>220</v>
       </c>
@@ -5161,7 +5179,7 @@
         <v>24</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="5" t="s">
+      <c r="M90" s="6" t="s">
         <v>76</v>
       </c>
       <c r="N90" s="4"/>
@@ -5188,7 +5206,7 @@
       <c r="G91" s="4" t="n">
         <v>64</v>
       </c>
-      <c r="H91" s="4" t="n">
+      <c r="H91" s="5" t="n">
         <v>64</v>
       </c>
       <c r="I91" s="4" t="s">
@@ -5203,7 +5221,7 @@
       <c r="L91" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="M91" s="6" t="s">
         <v>224</v>
       </c>
       <c r="N91" s="4"/>
@@ -5230,7 +5248,7 @@
       <c r="G92" s="4" t="n">
         <v>65</v>
       </c>
-      <c r="H92" s="4" t="n">
+      <c r="H92" s="5" t="n">
         <v>65</v>
       </c>
       <c r="I92" s="4" t="s">
@@ -5245,7 +5263,7 @@
       <c r="L92" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="M92" s="6" t="s">
         <v>98</v>
       </c>
       <c r="N92" s="4"/>
@@ -5272,7 +5290,7 @@
       <c r="G93" s="4" t="n">
         <v>66</v>
       </c>
-      <c r="H93" s="4" t="n">
+      <c r="H93" s="5" t="n">
         <v>66</v>
       </c>
       <c r="I93" s="4" t="s">
@@ -5287,7 +5305,7 @@
       <c r="L93" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="6" t="s">
         <v>86</v>
       </c>
       <c r="N93" s="4"/>
@@ -5314,7 +5332,7 @@
       <c r="G94" s="4" t="n">
         <v>67</v>
       </c>
-      <c r="H94" s="4" t="n">
+      <c r="H94" s="5" t="n">
         <v>67</v>
       </c>
       <c r="I94" s="4" t="s">
@@ -5327,7 +5345,7 @@
         <v>24</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="5" t="s">
+      <c r="M94" s="6" t="s">
         <v>229</v>
       </c>
       <c r="N94" s="4"/>
@@ -5354,7 +5372,7 @@
       <c r="G95" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="H95" s="4" t="n">
+      <c r="H95" s="5" t="n">
         <v>68</v>
       </c>
       <c r="I95" s="4" t="s">
@@ -5369,7 +5387,7 @@
       <c r="L95" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="M95" s="6" t="s">
         <v>130</v>
       </c>
       <c r="N95" s="4"/>
@@ -5396,7 +5414,7 @@
       <c r="G96" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="H96" s="4" t="n">
+      <c r="H96" s="5" t="n">
         <v>69</v>
       </c>
       <c r="I96" s="4" t="s">
@@ -5411,7 +5429,7 @@
       <c r="L96" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M96" s="5" t="s">
+      <c r="M96" s="6" t="s">
         <v>231</v>
       </c>
       <c r="N96" s="4"/>
@@ -5438,7 +5456,7 @@
       <c r="G97" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="H97" s="4" t="n">
+      <c r="H97" s="5" t="n">
         <v>70</v>
       </c>
       <c r="I97" s="4" t="s">
@@ -5453,7 +5471,7 @@
       <c r="L97" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="6" t="s">
         <v>234</v>
       </c>
       <c r="N97" s="4"/>
@@ -5472,7 +5490,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="H98" s="5"/>
       <c r="I98" s="4" t="s">
         <v>232</v>
       </c>
@@ -5485,7 +5503,7 @@
       <c r="L98" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="6" t="s">
         <v>235</v>
       </c>
       <c r="N98" s="4"/>
@@ -5512,7 +5530,7 @@
       <c r="G99" s="4" t="n">
         <v>71</v>
       </c>
-      <c r="H99" s="4" t="n">
+      <c r="H99" s="5" t="n">
         <v>71</v>
       </c>
       <c r="I99" s="4" t="s">
@@ -5527,7 +5545,7 @@
       <c r="L99" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M99" s="5" t="s">
+      <c r="M99" s="6" t="s">
         <v>86</v>
       </c>
       <c r="N99" s="4"/>
@@ -5554,7 +5572,7 @@
       <c r="G100" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="H100" s="4" t="n">
+      <c r="H100" s="5" t="n">
         <v>72</v>
       </c>
       <c r="I100" s="4" t="s">
@@ -5567,7 +5585,7 @@
         <v>37</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="5" t="s">
+      <c r="M100" s="6" t="s">
         <v>239</v>
       </c>
       <c r="N100" s="4"/>
@@ -5586,7 +5604,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+      <c r="H101" s="5"/>
       <c r="I101" s="4" t="s">
         <v>238</v>
       </c>
@@ -5599,7 +5617,7 @@
       <c r="L101" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="M101" s="6" t="s">
         <v>242</v>
       </c>
       <c r="N101" s="4"/>
@@ -5618,7 +5636,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="H102" s="5"/>
       <c r="I102" s="4" t="s">
         <v>238</v>
       </c>
@@ -5631,7 +5649,7 @@
       <c r="L102" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M102" s="5" t="s">
+      <c r="M102" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N102" s="4"/>
@@ -5658,7 +5676,7 @@
       <c r="G103" s="4" t="n">
         <v>73</v>
       </c>
-      <c r="H103" s="4" t="n">
+      <c r="H103" s="5" t="n">
         <v>73</v>
       </c>
       <c r="I103" s="4" t="s">
@@ -5671,7 +5689,7 @@
         <v>24</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="5" t="s">
+      <c r="M103" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N103" s="4"/>
@@ -5690,7 +5708,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+      <c r="H104" s="5"/>
       <c r="I104" s="4" t="s">
         <v>243</v>
       </c>
@@ -5703,7 +5721,7 @@
       <c r="L104" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="M104" s="6" t="s">
         <v>245</v>
       </c>
       <c r="N104" s="4"/>
@@ -5730,7 +5748,7 @@
       <c r="G105" s="4" t="n">
         <v>74</v>
       </c>
-      <c r="H105" s="4" t="n">
+      <c r="H105" s="5" t="n">
         <v>74</v>
       </c>
       <c r="I105" s="4" t="s">
@@ -5745,7 +5763,7 @@
       <c r="L105" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="M105" s="5" t="s">
+      <c r="M105" s="6" t="s">
         <v>231</v>
       </c>
       <c r="N105" s="4"/>
@@ -5772,7 +5790,7 @@
       <c r="G106" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="H106" s="4" t="n">
+      <c r="H106" s="5" t="n">
         <v>75</v>
       </c>
       <c r="I106" s="4" t="s">
@@ -5785,7 +5803,7 @@
         <v>37</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="5" t="s">
+      <c r="M106" s="6" t="s">
         <v>247</v>
       </c>
       <c r="N106" s="4"/>
@@ -5812,7 +5830,7 @@
       <c r="G107" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="H107" s="4" t="n">
+      <c r="H107" s="5" t="n">
         <v>76</v>
       </c>
       <c r="I107" s="4" t="s">
@@ -5827,7 +5845,7 @@
       <c r="L107" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="M107" s="6" t="s">
         <v>250</v>
       </c>
       <c r="N107" s="4"/>
@@ -5846,7 +5864,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
+      <c r="H108" s="5"/>
       <c r="I108" s="4" t="s">
         <v>248</v>
       </c>
@@ -5859,7 +5877,7 @@
       <c r="L108" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="M108" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N108" s="4"/>
@@ -5886,7 +5904,7 @@
       <c r="G109" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="H109" s="4" t="n">
+      <c r="H109" s="5" t="n">
         <v>77</v>
       </c>
       <c r="I109" s="4" t="s">
@@ -5899,7 +5917,7 @@
         <v>24</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="5" t="s">
+      <c r="M109" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N109" s="4"/>
@@ -5918,7 +5936,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="H110" s="5"/>
       <c r="I110" s="4" t="s">
         <v>251</v>
       </c>
@@ -5931,7 +5949,7 @@
       <c r="L110" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M110" s="5" t="s">
+      <c r="M110" s="6" t="s">
         <v>254</v>
       </c>
       <c r="N110" s="4"/>
@@ -5958,7 +5976,7 @@
       <c r="G111" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="H111" s="4" t="n">
+      <c r="H111" s="5" t="n">
         <v>78</v>
       </c>
       <c r="I111" s="4" t="s">
@@ -5971,7 +5989,7 @@
         <v>37</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="6" t="s">
         <v>247</v>
       </c>
       <c r="N111" s="4"/>
@@ -5990,7 +6008,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
+      <c r="H112" s="5"/>
       <c r="I112" s="4" t="s">
         <v>255</v>
       </c>
@@ -6003,7 +6021,7 @@
       <c r="L112" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M112" s="5" t="s">
+      <c r="M112" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N112" s="4"/>
@@ -6030,7 +6048,7 @@
       <c r="G113" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="H113" s="4" t="n">
+      <c r="H113" s="5" t="n">
         <v>79</v>
       </c>
       <c r="I113" s="4" t="s">
@@ -6043,7 +6061,7 @@
         <v>24</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="5" t="s">
+      <c r="M113" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N113" s="4"/>
@@ -6062,7 +6080,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
+      <c r="H114" s="5"/>
       <c r="I114" s="4" t="s">
         <v>256</v>
       </c>
@@ -6075,7 +6093,7 @@
       <c r="L114" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="M114" s="5" t="s">
+      <c r="M114" s="6" t="s">
         <v>258</v>
       </c>
       <c r="N114" s="4"/>
@@ -6094,7 +6112,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+      <c r="H115" s="5"/>
       <c r="I115" s="4" t="s">
         <v>256</v>
       </c>
@@ -6107,7 +6125,7 @@
       <c r="L115" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="4"/>
@@ -6134,7 +6152,7 @@
       <c r="G116" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="H116" s="4" t="n">
+      <c r="H116" s="5" t="n">
         <v>80</v>
       </c>
       <c r="I116" s="4" t="s">
@@ -6149,7 +6167,7 @@
       <c r="L116" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M116" s="5" t="s">
+      <c r="M116" s="6" t="s">
         <v>86</v>
       </c>
       <c r="N116" s="4"/>
@@ -6176,7 +6194,7 @@
       <c r="G117" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="H117" s="4" t="n">
+      <c r="H117" s="5" t="n">
         <v>81</v>
       </c>
       <c r="I117" s="4" t="s">
@@ -6189,7 +6207,7 @@
         <v>24</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="5" t="s">
+      <c r="M117" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N117" s="4"/>
@@ -6208,7 +6226,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
+      <c r="H118" s="5"/>
       <c r="I118" s="4" t="s">
         <v>259</v>
       </c>
@@ -6221,7 +6239,7 @@
       <c r="L118" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="6" t="s">
         <v>261</v>
       </c>
       <c r="N118" s="4"/>
@@ -6248,7 +6266,7 @@
       <c r="G119" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="H119" s="4" t="n">
+      <c r="H119" s="5" t="n">
         <v>82</v>
       </c>
       <c r="I119" s="4" t="s">
@@ -6263,7 +6281,7 @@
       <c r="L119" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="M119" s="6" t="s">
         <v>265</v>
       </c>
       <c r="N119" s="4"/>
@@ -6290,7 +6308,7 @@
       <c r="G120" s="4" t="n">
         <v>83</v>
       </c>
-      <c r="H120" s="4" t="n">
+      <c r="H120" s="5" t="n">
         <v>83</v>
       </c>
       <c r="I120" s="4" t="s">
@@ -6305,7 +6323,7 @@
       <c r="L120" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="M120" s="6" t="s">
         <v>231</v>
       </c>
       <c r="N120" s="4"/>
@@ -6332,7 +6350,7 @@
       <c r="G121" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="H121" s="4" t="n">
+      <c r="H121" s="5" t="n">
         <v>84</v>
       </c>
       <c r="I121" s="4" t="s">
@@ -6345,7 +6363,7 @@
         <v>37</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="5" t="s">
+      <c r="M121" s="6" t="s">
         <v>267</v>
       </c>
       <c r="N121" s="4"/>
@@ -6372,7 +6390,7 @@
       <c r="G122" s="4" t="n">
         <v>85</v>
       </c>
-      <c r="H122" s="4" t="n">
+      <c r="H122" s="5" t="n">
         <v>85</v>
       </c>
       <c r="I122" s="4" t="s">
@@ -6387,7 +6405,7 @@
       <c r="L122" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="M122" s="5" t="s">
+      <c r="M122" s="6" t="s">
         <v>270</v>
       </c>
       <c r="N122" s="4"/>
@@ -6414,7 +6432,7 @@
       <c r="G123" s="4" t="n">
         <v>86</v>
       </c>
-      <c r="H123" s="4" t="n">
+      <c r="H123" s="5" t="n">
         <v>86</v>
       </c>
       <c r="I123" s="4" t="s">
@@ -6427,7 +6445,7 @@
         <v>37</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="5" t="s">
+      <c r="M123" s="6" t="s">
         <v>272</v>
       </c>
       <c r="N123" s="4"/>
@@ -6454,7 +6472,7 @@
       <c r="G124" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="H124" s="4" t="n">
+      <c r="H124" s="5" t="n">
         <v>87</v>
       </c>
       <c r="I124" s="4" t="s">
@@ -6469,7 +6487,7 @@
       <c r="L124" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="M124" s="5" t="s">
+      <c r="M124" s="6" t="s">
         <v>250</v>
       </c>
       <c r="N124" s="4"/>
@@ -6496,7 +6514,7 @@
       <c r="G125" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="H125" s="4" t="n">
+      <c r="H125" s="5" t="n">
         <v>88</v>
       </c>
       <c r="I125" s="4" t="s">
@@ -6509,7 +6527,7 @@
         <v>24</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="5" t="s">
+      <c r="M125" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N125" s="4"/>
@@ -6528,7 +6546,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
+      <c r="H126" s="5"/>
       <c r="I126" s="4" t="s">
         <v>275</v>
       </c>
@@ -6539,7 +6557,7 @@
         <v>134</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="5" t="s">
+      <c r="M126" s="6" t="s">
         <v>135</v>
       </c>
       <c r="N126" s="4"/>
@@ -6566,7 +6584,7 @@
       <c r="G127" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="H127" s="4" t="n">
+      <c r="H127" s="5" t="n">
         <v>89</v>
       </c>
       <c r="I127" s="4" t="s">
@@ -6581,7 +6599,7 @@
       <c r="L127" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="M127" s="5" t="s">
+      <c r="M127" s="6" t="s">
         <v>280</v>
       </c>
       <c r="N127" s="4"/>
@@ -6608,7 +6626,7 @@
       <c r="G128" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="H128" s="4" t="n">
+      <c r="H128" s="5" t="n">
         <v>90</v>
       </c>
       <c r="I128" s="4" t="s">
@@ -6621,7 +6639,7 @@
         <v>37</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="5" t="s">
+      <c r="M128" s="6" t="s">
         <v>282</v>
       </c>
       <c r="N128" s="4"/>
@@ -6648,7 +6666,7 @@
       <c r="G129" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="H129" s="4" t="n">
+      <c r="H129" s="5" t="n">
         <v>91</v>
       </c>
       <c r="I129" s="4" t="s">
@@ -6663,7 +6681,7 @@
       <c r="L129" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="M129" s="5" t="s">
+      <c r="M129" s="6" t="s">
         <v>270</v>
       </c>
       <c r="N129" s="4"/>
@@ -6690,7 +6708,7 @@
       <c r="G130" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="H130" s="4" t="n">
+      <c r="H130" s="5" t="n">
         <v>92</v>
       </c>
       <c r="I130" s="4" t="s">
@@ -6703,7 +6721,7 @@
         <v>37</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="5" t="s">
+      <c r="M130" s="6" t="s">
         <v>284</v>
       </c>
       <c r="N130" s="4"/>
@@ -6722,7 +6740,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
+      <c r="H131" s="5"/>
       <c r="I131" s="4" t="s">
         <v>283</v>
       </c>
@@ -6735,7 +6753,7 @@
       <c r="L131" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="M131" s="5" t="s">
+      <c r="M131" s="6" t="s">
         <v>287</v>
       </c>
       <c r="N131" s="4"/>
@@ -6754,7 +6772,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
+      <c r="H132" s="5"/>
       <c r="I132" s="4" t="s">
         <v>283</v>
       </c>
@@ -6767,7 +6785,7 @@
       <c r="L132" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M132" s="5" t="s">
+      <c r="M132" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N132" s="4"/>
@@ -6794,7 +6812,7 @@
       <c r="G133" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="H133" s="4" t="n">
+      <c r="H133" s="5" t="n">
         <v>93</v>
       </c>
       <c r="I133" s="4" t="s">
@@ -6809,7 +6827,7 @@
       <c r="L133" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M133" s="5" t="s">
+      <c r="M133" s="6" t="s">
         <v>86</v>
       </c>
       <c r="N133" s="4"/>
@@ -6836,7 +6854,7 @@
       <c r="G134" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="H134" s="4" t="n">
+      <c r="H134" s="5" t="n">
         <v>94</v>
       </c>
       <c r="I134" s="4" t="s">
@@ -6851,7 +6869,7 @@
       <c r="L134" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M134" s="5" t="s">
+      <c r="M134" s="6" t="s">
         <v>290</v>
       </c>
       <c r="N134" s="4"/>
@@ -6878,7 +6896,7 @@
       <c r="G135" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="H135" s="4" t="n">
+      <c r="H135" s="5" t="n">
         <v>95</v>
       </c>
       <c r="I135" s="4" t="s">
@@ -6891,7 +6909,7 @@
         <v>24</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="5" t="s">
+      <c r="M135" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N135" s="4"/>
@@ -6910,7 +6928,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
+      <c r="H136" s="5"/>
       <c r="I136" s="4" t="s">
         <v>291</v>
       </c>
@@ -6923,7 +6941,7 @@
       <c r="L136" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M136" s="5" t="s">
+      <c r="M136" s="6" t="s">
         <v>293</v>
       </c>
       <c r="N136" s="4"/>
@@ -6950,7 +6968,7 @@
       <c r="G137" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="H137" s="4" t="n">
+      <c r="H137" s="5" t="n">
         <v>96</v>
       </c>
       <c r="I137" s="4" t="s">
@@ -6963,7 +6981,7 @@
         <v>37</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="5"/>
+      <c r="M137" s="6"/>
       <c r="N137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6980,7 +6998,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
+      <c r="H138" s="5"/>
       <c r="I138" s="4" t="s">
         <v>255</v>
       </c>
@@ -6993,7 +7011,7 @@
       <c r="L138" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M138" s="5" t="s">
+      <c r="M138" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N138" s="4"/>
@@ -7020,7 +7038,7 @@
       <c r="G139" s="4" t="n">
         <v>97</v>
       </c>
-      <c r="H139" s="4" t="n">
+      <c r="H139" s="5" t="n">
         <v>97</v>
       </c>
       <c r="I139" s="4" t="s">
@@ -7035,7 +7053,7 @@
       <c r="L139" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M139" s="5" t="s">
+      <c r="M139" s="6" t="s">
         <v>86</v>
       </c>
       <c r="N139" s="4"/>
@@ -7062,7 +7080,7 @@
       <c r="G140" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="H140" s="4" t="n">
+      <c r="H140" s="5" t="n">
         <v>98</v>
       </c>
       <c r="I140" s="4" t="s">
@@ -7075,7 +7093,7 @@
         <v>24</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="5" t="s">
+      <c r="M140" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N140" s="4"/>
@@ -7094,7 +7112,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
+      <c r="H141" s="5"/>
       <c r="I141" s="4" t="s">
         <v>294</v>
       </c>
@@ -7107,7 +7125,7 @@
       <c r="L141" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M141" s="5" t="s">
+      <c r="M141" s="6" t="s">
         <v>296</v>
       </c>
       <c r="N141" s="4"/>
@@ -7126,7 +7144,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
+      <c r="H142" s="5"/>
       <c r="I142" s="4" t="s">
         <v>294</v>
       </c>
@@ -7139,7 +7157,7 @@
       <c r="L142" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M142" s="5" t="s">
+      <c r="M142" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N142" s="4"/>
@@ -7166,7 +7184,7 @@
       <c r="G143" s="4" t="n">
         <v>99</v>
       </c>
-      <c r="H143" s="4" t="n">
+      <c r="H143" s="5" t="n">
         <v>99</v>
       </c>
       <c r="I143" s="4" t="s">
@@ -7179,7 +7197,7 @@
         <v>24</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="5" t="s">
+      <c r="M143" s="6" t="s">
         <v>299</v>
       </c>
       <c r="N143" s="4"/>
@@ -7206,7 +7224,7 @@
       <c r="G144" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H144" s="4" t="n">
+      <c r="H144" s="5" t="n">
         <v>100</v>
       </c>
       <c r="I144" s="4" t="s">
@@ -7221,7 +7239,7 @@
       <c r="L144" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M144" s="5" t="s">
+      <c r="M144" s="6" t="s">
         <v>302</v>
       </c>
       <c r="N144" s="4"/>
@@ -7248,7 +7266,7 @@
       <c r="G145" s="4" t="n">
         <v>101</v>
       </c>
-      <c r="H145" s="4" t="n">
+      <c r="H145" s="5" t="n">
         <v>101</v>
       </c>
       <c r="I145" s="4" t="s">
@@ -7261,7 +7279,7 @@
         <v>37</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="5" t="s">
+      <c r="M145" s="6" t="s">
         <v>303</v>
       </c>
       <c r="N145" s="4"/>
@@ -7280,7 +7298,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
+      <c r="H146" s="5"/>
       <c r="I146" s="4" t="s">
         <v>255</v>
       </c>
@@ -7293,7 +7311,7 @@
       <c r="L146" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M146" s="5" t="s">
+      <c r="M146" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N146" s="4"/>
@@ -7320,7 +7338,7 @@
       <c r="G147" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="H147" s="4" t="n">
+      <c r="H147" s="5" t="n">
         <v>102</v>
       </c>
       <c r="I147" s="4" t="s">
@@ -7333,24 +7351,24 @@
         <v>37</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="5" t="s">
+      <c r="M147" s="6" t="s">
         <v>305</v>
       </c>
       <c r="N147" s="4"/>
-      <c r="O147" s="8"/>
-      <c r="P147" s="8"/>
-      <c r="Q147" s="8"/>
-      <c r="R147" s="8"/>
-      <c r="S147" s="8"/>
-      <c r="T147" s="8"/>
-      <c r="U147" s="8"/>
-      <c r="V147" s="8"/>
-      <c r="W147" s="8"/>
-      <c r="X147" s="8"/>
-      <c r="Y147" s="8"/>
-      <c r="Z147" s="8"/>
-      <c r="AA147" s="8"/>
-      <c r="AB147" s="8"/>
+      <c r="O147" s="10"/>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+      <c r="R147" s="10"/>
+      <c r="S147" s="10"/>
+      <c r="T147" s="10"/>
+      <c r="U147" s="10"/>
+      <c r="V147" s="10"/>
+      <c r="W147" s="10"/>
+      <c r="X147" s="10"/>
+      <c r="Y147" s="10"/>
+      <c r="Z147" s="10"/>
+      <c r="AA147" s="10"/>
+      <c r="AB147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
@@ -7374,7 +7392,7 @@
       <c r="G148" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="H148" s="4" t="n">
+      <c r="H148" s="5" t="n">
         <v>103</v>
       </c>
       <c r="I148" s="4" t="s">
@@ -7389,7 +7407,7 @@
       <c r="L148" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M148" s="5" t="s">
+      <c r="M148" s="6" t="s">
         <v>250</v>
       </c>
       <c r="N148" s="4"/>
@@ -7416,7 +7434,7 @@
       <c r="G149" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="H149" s="4" t="n">
+      <c r="H149" s="5" t="n">
         <v>104</v>
       </c>
       <c r="I149" s="4" t="s">
@@ -7429,7 +7447,7 @@
         <v>24</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="5" t="s">
+      <c r="M149" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N149" s="4"/>
@@ -7448,7 +7466,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
+      <c r="H150" s="5"/>
       <c r="I150" s="4" t="s">
         <v>306</v>
       </c>
@@ -7461,7 +7479,7 @@
       <c r="L150" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="M150" s="5" t="s">
+      <c r="M150" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N150" s="4"/>
@@ -7488,7 +7506,7 @@
       <c r="G151" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="H151" s="4" t="n">
+      <c r="H151" s="5" t="n">
         <v>105</v>
       </c>
       <c r="I151" s="4" t="s">
@@ -7503,7 +7521,7 @@
       <c r="L151" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M151" s="5" t="s">
+      <c r="M151" s="6" t="s">
         <v>311</v>
       </c>
       <c r="N151" s="4"/>
@@ -7530,7 +7548,7 @@
       <c r="G152" s="4" t="n">
         <v>106</v>
       </c>
-      <c r="H152" s="4" t="n">
+      <c r="H152" s="5" t="n">
         <v>106</v>
       </c>
       <c r="I152" s="4" t="s">
@@ -7545,7 +7563,7 @@
       <c r="L152" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="M152" s="5" t="s">
+      <c r="M152" s="6" t="s">
         <v>231</v>
       </c>
       <c r="N152" s="4"/>
@@ -7572,7 +7590,7 @@
       <c r="G153" s="4" t="n">
         <v>107</v>
       </c>
-      <c r="H153" s="4" t="n">
+      <c r="H153" s="5" t="n">
         <v>107</v>
       </c>
       <c r="I153" s="4" t="s">
@@ -7585,7 +7603,7 @@
         <v>37</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="5"/>
+      <c r="M153" s="6"/>
       <c r="N153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7602,7 +7620,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
+      <c r="H154" s="5"/>
       <c r="I154" s="4" t="s">
         <v>313</v>
       </c>
@@ -7613,7 +7631,7 @@
         <v>134</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="5" t="s">
+      <c r="M154" s="6" t="s">
         <v>315</v>
       </c>
       <c r="N154" s="4"/>
@@ -7632,7 +7650,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
+      <c r="H155" s="5"/>
       <c r="I155" s="4" t="s">
         <v>313</v>
       </c>
@@ -7645,7 +7663,7 @@
       <c r="L155" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M155" s="5" t="s">
+      <c r="M155" s="6" t="s">
         <v>194</v>
       </c>
       <c r="N155" s="4"/>
@@ -7672,7 +7690,7 @@
       <c r="G156" s="4" t="n">
         <v>108</v>
       </c>
-      <c r="H156" s="4" t="n">
+      <c r="H156" s="5" t="n">
         <v>108</v>
       </c>
       <c r="I156" s="4" t="s">
@@ -7685,7 +7703,7 @@
         <v>134</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="5" t="s">
+      <c r="M156" s="6" t="s">
         <v>317</v>
       </c>
       <c r="N156" s="4"/>
@@ -7712,7 +7730,7 @@
       <c r="G157" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="H157" s="4" t="n">
+      <c r="H157" s="5" t="n">
         <v>109</v>
       </c>
       <c r="I157" s="4" t="s">
@@ -7727,7 +7745,7 @@
       <c r="L157" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M157" s="5" t="s">
+      <c r="M157" s="6" t="s">
         <v>296</v>
       </c>
       <c r="N157" s="4"/>
@@ -7754,7 +7772,7 @@
       <c r="G158" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="H158" s="4" t="n">
+      <c r="H158" s="5" t="n">
         <v>110</v>
       </c>
       <c r="I158" s="4" t="s">
@@ -7769,7 +7787,7 @@
       <c r="L158" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="M158" s="5" t="s">
+      <c r="M158" s="6" t="s">
         <v>323</v>
       </c>
       <c r="N158" s="4"/>
@@ -7788,11 +7806,11 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
+      <c r="H159" s="5"/>
       <c r="I159" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="J159" s="6" t="s">
+      <c r="J159" s="8" t="s">
         <v>324</v>
       </c>
       <c r="K159" s="4" t="s">
@@ -7801,24 +7819,24 @@
       <c r="L159" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="M159" s="5" t="s">
+      <c r="M159" s="6" t="s">
         <v>326</v>
       </c>
       <c r="N159" s="4"/>
-      <c r="O159" s="8"/>
-      <c r="P159" s="8"/>
-      <c r="Q159" s="8"/>
-      <c r="R159" s="8"/>
-      <c r="S159" s="8"/>
-      <c r="T159" s="8"/>
-      <c r="U159" s="8"/>
-      <c r="V159" s="8"/>
-      <c r="W159" s="8"/>
-      <c r="X159" s="8"/>
-      <c r="Y159" s="8"/>
-      <c r="Z159" s="8"/>
-      <c r="AA159" s="8"/>
-      <c r="AB159" s="8"/>
+      <c r="O159" s="10"/>
+      <c r="P159" s="10"/>
+      <c r="Q159" s="10"/>
+      <c r="R159" s="10"/>
+      <c r="S159" s="10"/>
+      <c r="T159" s="10"/>
+      <c r="U159" s="10"/>
+      <c r="V159" s="10"/>
+      <c r="W159" s="10"/>
+      <c r="X159" s="10"/>
+      <c r="Y159" s="10"/>
+      <c r="Z159" s="10"/>
+      <c r="AA159" s="10"/>
+      <c r="AB159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
@@ -7842,7 +7860,7 @@
       <c r="G160" s="4" t="n">
         <v>111</v>
       </c>
-      <c r="H160" s="4" t="n">
+      <c r="H160" s="5" t="n">
         <v>111</v>
       </c>
       <c r="I160" s="4" t="s">
@@ -7855,7 +7873,7 @@
         <v>24</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="5" t="s">
+      <c r="M160" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N160" s="4"/>
@@ -7874,7 +7892,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
+      <c r="H161" s="5"/>
       <c r="I161" s="4" t="s">
         <v>327</v>
       </c>
@@ -7885,7 +7903,7 @@
         <v>24</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="5" t="s">
+      <c r="M161" s="6" t="s">
         <v>329</v>
       </c>
       <c r="N161" s="4"/>
@@ -7912,7 +7930,7 @@
       <c r="G162" s="4" t="n">
         <v>112</v>
       </c>
-      <c r="H162" s="4" t="n">
+      <c r="H162" s="5" t="n">
         <v>112</v>
       </c>
       <c r="I162" s="4" t="s">
@@ -7925,7 +7943,7 @@
         <v>134</v>
       </c>
       <c r="L162" s="4"/>
-      <c r="M162" s="5" t="s">
+      <c r="M162" s="6" t="s">
         <v>135</v>
       </c>
       <c r="N162" s="4"/>
@@ -7952,7 +7970,7 @@
       <c r="G163" s="4" t="n">
         <v>113</v>
       </c>
-      <c r="H163" s="4" t="n">
+      <c r="H163" s="5" t="n">
         <v>113</v>
       </c>
       <c r="I163" s="4" t="s">
@@ -7967,7 +7985,7 @@
       <c r="L163" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="M163" s="5" t="s">
+      <c r="M163" s="6" t="s">
         <v>333</v>
       </c>
       <c r="N163" s="4"/>
@@ -7994,7 +8012,7 @@
       <c r="G164" s="4" t="n">
         <v>114</v>
       </c>
-      <c r="H164" s="4" t="n">
+      <c r="H164" s="5" t="n">
         <v>114</v>
       </c>
       <c r="I164" s="4" t="s">
@@ -8007,7 +8025,7 @@
         <v>24</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="5" t="s">
+      <c r="M164" s="6" t="s">
         <v>335</v>
       </c>
       <c r="N164" s="4"/>
@@ -8026,7 +8044,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
+      <c r="H165" s="5"/>
       <c r="I165" s="4" t="s">
         <v>334</v>
       </c>
@@ -8039,7 +8057,7 @@
       <c r="L165" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="M165" s="5" t="s">
+      <c r="M165" s="6" t="s">
         <v>338</v>
       </c>
       <c r="N165" s="4"/>
@@ -8066,7 +8084,7 @@
       <c r="G166" s="4" t="n">
         <v>115</v>
       </c>
-      <c r="H166" s="4" t="n">
+      <c r="H166" s="5" t="n">
         <v>115</v>
       </c>
       <c r="I166" s="4" t="s">
@@ -8079,7 +8097,7 @@
         <v>37</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="5" t="s">
+      <c r="M166" s="6" t="s">
         <v>340</v>
       </c>
       <c r="N166" s="4"/>
@@ -8098,7 +8116,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
+      <c r="H167" s="5"/>
       <c r="I167" s="4" t="s">
         <v>339</v>
       </c>
@@ -8111,7 +8129,7 @@
       <c r="L167" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M167" s="5" t="s">
+      <c r="M167" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N167" s="4"/>
@@ -8138,7 +8156,7 @@
       <c r="G168" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="H168" s="4" t="n">
+      <c r="H168" s="5" t="n">
         <v>116</v>
       </c>
       <c r="I168" s="4" t="s">
@@ -8151,7 +8169,7 @@
         <v>24</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="5" t="s">
+      <c r="M168" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N168" s="4"/>
@@ -8170,7 +8188,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
+      <c r="H169" s="5"/>
       <c r="I169" s="4" t="s">
         <v>341</v>
       </c>
@@ -8183,7 +8201,7 @@
       <c r="L169" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M169" s="5" t="s">
+      <c r="M169" s="6" t="s">
         <v>343</v>
       </c>
       <c r="N169" s="4"/>
@@ -8202,7 +8220,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
+      <c r="H170" s="5"/>
       <c r="I170" s="4" t="s">
         <v>341</v>
       </c>
@@ -8215,7 +8233,7 @@
       <c r="L170" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M170" s="5" t="s">
+      <c r="M170" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N170" s="4"/>
@@ -8242,7 +8260,7 @@
       <c r="G171" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="H171" s="4" t="n">
+      <c r="H171" s="5" t="n">
         <v>117</v>
       </c>
       <c r="I171" s="4" t="s">
@@ -8255,7 +8273,7 @@
         <v>134</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="5" t="s">
+      <c r="M171" s="6" t="s">
         <v>346</v>
       </c>
       <c r="N171" s="4"/>
@@ -8274,7 +8292,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
+      <c r="H172" s="5"/>
       <c r="I172" s="4" t="s">
         <v>344</v>
       </c>
@@ -8287,7 +8305,7 @@
       <c r="L172" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M172" s="5" t="s">
+      <c r="M172" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N172" s="4"/>
@@ -8314,7 +8332,7 @@
       <c r="G173" s="4" t="n">
         <v>118</v>
       </c>
-      <c r="H173" s="4" t="n">
+      <c r="H173" s="5" t="n">
         <v>118</v>
       </c>
       <c r="I173" s="4" t="s">
@@ -8329,7 +8347,7 @@
       <c r="L173" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M173" s="5" t="s">
+      <c r="M173" s="6" t="s">
         <v>130</v>
       </c>
       <c r="N173" s="4"/>
@@ -8348,7 +8366,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
+      <c r="H174" s="5"/>
       <c r="I174" s="4" t="s">
         <v>174</v>
       </c>
@@ -8359,7 +8377,7 @@
         <v>24</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="5" t="s">
+      <c r="M174" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N174" s="4"/>
@@ -8386,7 +8404,7 @@
       <c r="G175" s="4" t="n">
         <v>119</v>
       </c>
-      <c r="H175" s="4" t="n">
+      <c r="H175" s="5" t="n">
         <v>119</v>
       </c>
       <c r="I175" s="4" t="s">
@@ -8399,7 +8417,7 @@
         <v>24</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="5" t="s">
+      <c r="M175" s="6" t="s">
         <v>329</v>
       </c>
       <c r="N175" s="4"/>
@@ -8426,7 +8444,7 @@
       <c r="G176" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="H176" s="4" t="n">
+      <c r="H176" s="5" t="n">
         <v>120</v>
       </c>
       <c r="I176" s="4" t="s">
@@ -8441,7 +8459,7 @@
       <c r="L176" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="M176" s="5" t="s">
+      <c r="M176" s="6" t="s">
         <v>350</v>
       </c>
       <c r="N176" s="4"/>
@@ -8468,7 +8486,7 @@
       <c r="G177" s="4" t="n">
         <v>121</v>
       </c>
-      <c r="H177" s="4" t="n">
+      <c r="H177" s="5" t="n">
         <v>121</v>
       </c>
       <c r="I177" s="4" t="s">
@@ -8483,7 +8501,7 @@
       <c r="L177" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M177" s="5" t="s">
+      <c r="M177" s="6" t="s">
         <v>352</v>
       </c>
       <c r="N177" s="4"/>
@@ -8510,7 +8528,7 @@
       <c r="G178" s="4" t="n">
         <v>122</v>
       </c>
-      <c r="H178" s="4" t="n">
+      <c r="H178" s="5" t="n">
         <v>122</v>
       </c>
       <c r="I178" s="4" t="s">
@@ -8525,7 +8543,7 @@
       <c r="L178" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="M178" s="5" t="s">
+      <c r="M178" s="6" t="s">
         <v>54</v>
       </c>
       <c r="N178" s="4"/>
@@ -8552,7 +8570,7 @@
       <c r="G179" s="4" t="n">
         <v>123</v>
       </c>
-      <c r="H179" s="4" t="n">
+      <c r="H179" s="5" t="n">
         <v>123</v>
       </c>
       <c r="I179" s="4" t="s">
@@ -8567,7 +8585,7 @@
       <c r="L179" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="M179" s="5" t="s">
+      <c r="M179" s="6" t="s">
         <v>350</v>
       </c>
       <c r="N179" s="4"/>
@@ -8594,7 +8612,7 @@
       <c r="G180" s="4" t="n">
         <v>124</v>
       </c>
-      <c r="H180" s="4" t="n">
+      <c r="H180" s="5" t="n">
         <v>124</v>
       </c>
       <c r="I180" s="4" t="s">
@@ -8607,7 +8625,7 @@
         <v>37</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="5" t="s">
+      <c r="M180" s="6" t="s">
         <v>352</v>
       </c>
       <c r="N180" s="4"/>
@@ -8626,7 +8644,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
+      <c r="H181" s="5"/>
       <c r="I181" s="4" t="s">
         <v>358</v>
       </c>
@@ -8639,7 +8657,7 @@
       <c r="L181" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="M181" s="5" t="s">
+      <c r="M181" s="6" t="s">
         <v>326</v>
       </c>
       <c r="N181" s="4"/>
@@ -8666,7 +8684,7 @@
       <c r="G182" s="4" t="n">
         <v>125</v>
       </c>
-      <c r="H182" s="4" t="n">
+      <c r="H182" s="5" t="n">
         <v>125</v>
       </c>
       <c r="I182" s="4" t="s">
@@ -8681,7 +8699,7 @@
       <c r="L182" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="M182" s="5" t="s">
+      <c r="M182" s="6" t="s">
         <v>323</v>
       </c>
       <c r="N182" s="4"/>
@@ -8700,7 +8718,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
+      <c r="H183" s="5"/>
       <c r="I183" s="4" t="s">
         <v>320</v>
       </c>
@@ -8713,7 +8731,7 @@
       <c r="L183" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="M183" s="5" t="s">
+      <c r="M183" s="6" t="s">
         <v>326</v>
       </c>
       <c r="N183" s="4"/>
@@ -8740,7 +8758,7 @@
       <c r="G184" s="4" t="n">
         <v>126</v>
       </c>
-      <c r="H184" s="4" t="n">
+      <c r="H184" s="5" t="n">
         <v>126</v>
       </c>
       <c r="I184" s="4" t="s">
@@ -8753,7 +8771,7 @@
         <v>24</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="5" t="s">
+      <c r="M184" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N184" s="4"/>
@@ -8772,7 +8790,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
+      <c r="H185" s="5"/>
       <c r="I185" s="4" t="s">
         <v>359</v>
       </c>
@@ -8783,7 +8801,7 @@
         <v>134</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="5" t="s">
+      <c r="M185" s="6" t="s">
         <v>360</v>
       </c>
       <c r="N185" s="4"/>
@@ -8810,7 +8828,7 @@
       <c r="G186" s="4" t="n">
         <v>127</v>
       </c>
-      <c r="H186" s="4" t="n">
+      <c r="H186" s="5" t="n">
         <v>127</v>
       </c>
       <c r="I186" s="4" t="s">
@@ -8825,7 +8843,7 @@
       <c r="L186" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M186" s="5" t="s">
+      <c r="M186" s="6" t="s">
         <v>363</v>
       </c>
       <c r="N186" s="4"/>
@@ -8844,7 +8862,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
+      <c r="H187" s="5"/>
       <c r="I187" s="4" t="s">
         <v>361</v>
       </c>
@@ -8857,7 +8875,7 @@
       <c r="L187" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M187" s="5" t="s">
+      <c r="M187" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N187" s="4"/>
@@ -8884,7 +8902,7 @@
       <c r="G188" s="4" t="n">
         <v>128</v>
       </c>
-      <c r="H188" s="4" t="n">
+      <c r="H188" s="5" t="n">
         <v>128</v>
       </c>
       <c r="I188" s="4" t="s">
@@ -8897,7 +8915,7 @@
         <v>24</v>
       </c>
       <c r="L188" s="4"/>
-      <c r="M188" s="5" t="s">
+      <c r="M188" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N188" s="4"/>
@@ -8916,7 +8934,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
+      <c r="H189" s="5"/>
       <c r="I189" s="4" t="s">
         <v>364</v>
       </c>
@@ -8929,7 +8947,7 @@
       <c r="L189" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="M189" s="5" t="s">
+      <c r="M189" s="6" t="s">
         <v>326</v>
       </c>
       <c r="N189" s="4"/>
@@ -8956,7 +8974,7 @@
       <c r="G190" s="4" t="n">
         <v>129</v>
       </c>
-      <c r="H190" s="4" t="n">
+      <c r="H190" s="5" t="n">
         <v>129</v>
       </c>
       <c r="I190" s="4" t="s">
@@ -8971,7 +8989,7 @@
       <c r="L190" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="M190" s="5" t="s">
+      <c r="M190" s="6" t="s">
         <v>338</v>
       </c>
       <c r="N190" s="4"/>
@@ -8998,7 +9016,7 @@
       <c r="G191" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="H191" s="4" t="n">
+      <c r="H191" s="5" t="n">
         <v>130</v>
       </c>
       <c r="I191" s="4" t="s">
@@ -9011,7 +9029,7 @@
         <v>24</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="5" t="s">
+      <c r="M191" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N191" s="4"/>
@@ -9030,7 +9048,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
+      <c r="H192" s="5"/>
       <c r="I192" s="4" t="s">
         <v>369</v>
       </c>
@@ -9043,7 +9061,7 @@
       <c r="L192" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="M192" s="5" t="s">
+      <c r="M192" s="6" t="s">
         <v>372</v>
       </c>
       <c r="N192" s="4"/>
@@ -9070,7 +9088,7 @@
       <c r="G193" s="4" t="n">
         <v>131</v>
       </c>
-      <c r="H193" s="4" t="n">
+      <c r="H193" s="5" t="n">
         <v>131</v>
       </c>
       <c r="I193" s="4" t="s">
@@ -9083,7 +9101,7 @@
         <v>134</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="5" t="s">
+      <c r="M193" s="6" t="s">
         <v>375</v>
       </c>
       <c r="N193" s="4"/>
@@ -9102,7 +9120,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
+      <c r="H194" s="5"/>
       <c r="I194" s="4" t="s">
         <v>373</v>
       </c>
@@ -9115,7 +9133,7 @@
       <c r="L194" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="M194" s="5" t="s">
+      <c r="M194" s="6" t="s">
         <v>377</v>
       </c>
       <c r="N194" s="4"/>
@@ -9142,7 +9160,7 @@
       <c r="G195" s="4" t="n">
         <v>132</v>
       </c>
-      <c r="H195" s="4" t="n">
+      <c r="H195" s="5" t="n">
         <v>132</v>
       </c>
       <c r="I195" s="4" t="s">
@@ -9157,7 +9175,7 @@
       <c r="L195" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="M195" s="5" t="s">
+      <c r="M195" s="6" t="s">
         <v>381</v>
       </c>
       <c r="N195" s="4"/>
@@ -9184,7 +9202,7 @@
       <c r="G196" s="4" t="n">
         <v>133</v>
       </c>
-      <c r="H196" s="4" t="n">
+      <c r="H196" s="5" t="n">
         <v>133</v>
       </c>
       <c r="I196" s="4" t="s">
@@ -9199,7 +9217,7 @@
       <c r="L196" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M196" s="5" t="s">
+      <c r="M196" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N196" s="4"/>
@@ -9218,7 +9236,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
+      <c r="H197" s="5"/>
       <c r="I197" s="4" t="s">
         <v>129</v>
       </c>
@@ -9231,7 +9249,7 @@
       <c r="L197" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="M197" s="5" t="s">
+      <c r="M197" s="6" t="s">
         <v>130</v>
       </c>
       <c r="N197" s="4"/>
@@ -9258,7 +9276,7 @@
       <c r="G198" s="4" t="n">
         <v>134</v>
       </c>
-      <c r="H198" s="4" t="n">
+      <c r="H198" s="5" t="n">
         <v>134</v>
       </c>
       <c r="I198" s="4" t="s">
@@ -9273,7 +9291,7 @@
       <c r="L198" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M198" s="5" t="s">
+      <c r="M198" s="6" t="s">
         <v>231</v>
       </c>
       <c r="N198" s="4"/>
@@ -9300,7 +9318,7 @@
       <c r="G199" s="4" t="n">
         <v>135</v>
       </c>
-      <c r="H199" s="4" t="n">
+      <c r="H199" s="5" t="n">
         <v>135</v>
       </c>
       <c r="I199" s="4" t="s">
@@ -9315,7 +9333,7 @@
       <c r="L199" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="M199" s="5" t="s">
+      <c r="M199" s="6" t="s">
         <v>385</v>
       </c>
       <c r="N199" s="4"/>
@@ -9342,7 +9360,7 @@
       <c r="G200" s="4" t="n">
         <v>136</v>
       </c>
-      <c r="H200" s="4" t="n">
+      <c r="H200" s="5" t="n">
         <v>136</v>
       </c>
       <c r="I200" s="4" t="s">
@@ -9355,7 +9373,7 @@
         <v>134</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="5" t="s">
+      <c r="M200" s="6" t="s">
         <v>386</v>
       </c>
       <c r="N200" s="4"/>
@@ -9382,7 +9400,7 @@
       <c r="G201" s="4" t="n">
         <v>137</v>
       </c>
-      <c r="H201" s="4" t="n">
+      <c r="H201" s="5" t="n">
         <v>137</v>
       </c>
       <c r="I201" s="4" t="s">
@@ -9397,7 +9415,7 @@
       <c r="L201" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="M201" s="5" t="s">
+      <c r="M201" s="6" t="s">
         <v>381</v>
       </c>
       <c r="N201" s="4"/>
@@ -9424,7 +9442,7 @@
       <c r="G202" s="4" t="n">
         <v>138</v>
       </c>
-      <c r="H202" s="4" t="n">
+      <c r="H202" s="5" t="n">
         <v>138</v>
       </c>
       <c r="I202" s="4" t="s">
@@ -9437,7 +9455,7 @@
         <v>24</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="5" t="s">
+      <c r="M202" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N202" s="4"/>
@@ -9456,7 +9474,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
+      <c r="H203" s="5"/>
       <c r="I203" s="4" t="s">
         <v>388</v>
       </c>
@@ -9467,7 +9485,7 @@
         <v>134</v>
       </c>
       <c r="L203" s="4"/>
-      <c r="M203" s="5" t="s">
+      <c r="M203" s="6" t="s">
         <v>315</v>
       </c>
       <c r="N203" s="4"/>
@@ -9486,7 +9504,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
+      <c r="H204" s="5"/>
       <c r="I204" s="4" t="s">
         <v>388</v>
       </c>
@@ -9499,7 +9517,7 @@
       <c r="L204" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="M204" s="5" t="s">
+      <c r="M204" s="6" t="s">
         <v>194</v>
       </c>
       <c r="N204" s="4"/>
@@ -9526,7 +9544,7 @@
       <c r="G205" s="4" t="n">
         <v>139</v>
       </c>
-      <c r="H205" s="4" t="n">
+      <c r="H205" s="5" t="n">
         <v>139</v>
       </c>
       <c r="I205" s="4" t="s">
@@ -9539,7 +9557,7 @@
         <v>134</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="5" t="s">
+      <c r="M205" s="6" t="s">
         <v>135</v>
       </c>
       <c r="N205" s="4"/>
@@ -9566,7 +9584,7 @@
       <c r="G206" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="H206" s="4" t="n">
+      <c r="H206" s="5" t="n">
         <v>140</v>
       </c>
       <c r="I206" s="4" t="s">
@@ -9581,7 +9599,7 @@
       <c r="L206" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M206" s="5" t="s">
+      <c r="M206" s="6" t="s">
         <v>392</v>
       </c>
       <c r="N206" s="4"/>
@@ -9608,7 +9626,7 @@
       <c r="G207" s="4" t="n">
         <v>141</v>
       </c>
-      <c r="H207" s="4" t="n">
+      <c r="H207" s="5" t="n">
         <v>141</v>
       </c>
       <c r="I207" s="4" t="s">
@@ -9623,7 +9641,7 @@
       <c r="L207" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="M207" s="5" t="s">
+      <c r="M207" s="6" t="s">
         <v>394</v>
       </c>
       <c r="N207" s="4"/>
@@ -9642,7 +9660,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
+      <c r="H208" s="5"/>
       <c r="I208" s="4" t="s">
         <v>393</v>
       </c>
@@ -9655,7 +9673,7 @@
       <c r="L208" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="M208" s="5" t="s">
+      <c r="M208" s="6" t="s">
         <v>194</v>
       </c>
       <c r="N208" s="4"/>
@@ -9682,7 +9700,7 @@
       <c r="G209" s="4" t="n">
         <v>142</v>
       </c>
-      <c r="H209" s="4" t="n">
+      <c r="H209" s="5" t="n">
         <v>142</v>
       </c>
       <c r="I209" s="4" t="s">
@@ -9695,7 +9713,7 @@
         <v>24</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="5" t="s">
+      <c r="M209" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N209" s="4"/>
@@ -9714,7 +9732,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
+      <c r="H210" s="5"/>
       <c r="I210" s="4" t="s">
         <v>395</v>
       </c>
@@ -9727,7 +9745,7 @@
       <c r="L210" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="M210" s="5" t="s">
+      <c r="M210" s="6" t="s">
         <v>397</v>
       </c>
       <c r="N210" s="4"/>
@@ -9746,7 +9764,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
+      <c r="H211" s="5"/>
       <c r="I211" s="4" t="s">
         <v>395</v>
       </c>
@@ -9759,7 +9777,7 @@
       <c r="L211" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="M211" s="5" t="s">
+      <c r="M211" s="6" t="s">
         <v>194</v>
       </c>
       <c r="N211" s="4"/>
@@ -9786,7 +9804,7 @@
       <c r="G212" s="4" t="n">
         <v>143</v>
       </c>
-      <c r="H212" s="4" t="n">
+      <c r="H212" s="5" t="n">
         <v>143</v>
       </c>
       <c r="I212" s="4" t="s">
@@ -9799,7 +9817,7 @@
         <v>24</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="5" t="s">
+      <c r="M212" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N212" s="4"/>
@@ -9818,7 +9836,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
+      <c r="H213" s="5"/>
       <c r="I213" s="4" t="s">
         <v>398</v>
       </c>
@@ -9831,7 +9849,7 @@
       <c r="L213" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M213" s="5" t="s">
+      <c r="M213" s="6" t="s">
         <v>363</v>
       </c>
       <c r="N213" s="4"/>
@@ -9858,7 +9876,7 @@
       <c r="G214" s="4" t="n">
         <v>144</v>
       </c>
-      <c r="H214" s="4" t="n">
+      <c r="H214" s="5" t="n">
         <v>144</v>
       </c>
       <c r="I214" s="4" t="s">
@@ -9873,7 +9891,7 @@
       <c r="L214" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="M214" s="5" t="s">
+      <c r="M214" s="6" t="s">
         <v>323</v>
       </c>
       <c r="N214" s="4"/>
@@ -9892,7 +9910,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
-      <c r="H215" s="4"/>
+      <c r="H215" s="5"/>
       <c r="I215" s="4" t="s">
         <v>398</v>
       </c>
@@ -9905,7 +9923,7 @@
       <c r="L215" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="M215" s="5" t="s">
+      <c r="M215" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N215" s="4"/>
@@ -9932,7 +9950,7 @@
       <c r="G216" s="4" t="n">
         <v>145</v>
       </c>
-      <c r="H216" s="4" t="n">
+      <c r="H216" s="5" t="n">
         <v>145</v>
       </c>
       <c r="I216" s="4" t="s">
@@ -9945,7 +9963,7 @@
         <v>24</v>
       </c>
       <c r="L216" s="4"/>
-      <c r="M216" s="5" t="s">
+      <c r="M216" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N216" s="4"/>
@@ -9964,7 +9982,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
-      <c r="H217" s="4"/>
+      <c r="H217" s="5"/>
       <c r="I217" s="4" t="s">
         <v>402</v>
       </c>
@@ -9977,7 +9995,7 @@
       <c r="L217" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="M217" s="5" t="s">
+      <c r="M217" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N217" s="4"/>
@@ -10004,7 +10022,7 @@
       <c r="G218" s="4" t="n">
         <v>146</v>
       </c>
-      <c r="H218" s="4" t="n">
+      <c r="H218" s="5" t="n">
         <v>146</v>
       </c>
       <c r="I218" s="4" t="s">
@@ -10019,7 +10037,7 @@
       <c r="L218" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M218" s="5" t="s">
+      <c r="M218" s="6" t="s">
         <v>338</v>
       </c>
       <c r="N218" s="4"/>
@@ -10046,7 +10064,7 @@
       <c r="G219" s="4" t="n">
         <v>147</v>
       </c>
-      <c r="H219" s="4" t="n">
+      <c r="H219" s="5" t="n">
         <v>147</v>
       </c>
       <c r="I219" s="4" t="s">
@@ -10059,7 +10077,7 @@
         <v>134</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="5" t="s">
+      <c r="M219" s="6" t="s">
         <v>299</v>
       </c>
       <c r="N219" s="4"/>
@@ -10086,7 +10104,7 @@
       <c r="G220" s="4" t="n">
         <v>148</v>
       </c>
-      <c r="H220" s="4" t="n">
+      <c r="H220" s="5" t="n">
         <v>148</v>
       </c>
       <c r="I220" s="4" t="s">
@@ -10099,7 +10117,7 @@
         <v>24</v>
       </c>
       <c r="L220" s="4"/>
-      <c r="M220" s="5" t="s">
+      <c r="M220" s="6" t="s">
         <v>76</v>
       </c>
       <c r="N220" s="4"/>
@@ -10126,7 +10144,7 @@
       <c r="G221" s="4" t="n">
         <v>149</v>
       </c>
-      <c r="H221" s="4" t="n">
+      <c r="H221" s="5" t="n">
         <v>149</v>
       </c>
       <c r="I221" s="4" t="s">
@@ -10141,7 +10159,7 @@
       <c r="L221" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M221" s="5" t="s">
+      <c r="M221" s="6" t="s">
         <v>407</v>
       </c>
       <c r="N221" s="4"/>
@@ -10168,7 +10186,7 @@
       <c r="G222" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="H222" s="4" t="n">
+      <c r="H222" s="5" t="n">
         <v>150</v>
       </c>
       <c r="I222" s="4" t="s">
@@ -10181,7 +10199,7 @@
         <v>37</v>
       </c>
       <c r="L222" s="4"/>
-      <c r="M222" s="5"/>
+      <c r="M222" s="6"/>
       <c r="N222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10206,7 +10224,7 @@
       <c r="G223" s="4" t="n">
         <v>151</v>
       </c>
-      <c r="H223" s="4" t="n">
+      <c r="H223" s="5" t="n">
         <v>151</v>
       </c>
       <c r="I223" s="4" t="s">
@@ -10221,7 +10239,7 @@
       <c r="L223" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M223" s="5" t="s">
+      <c r="M223" s="6" t="s">
         <v>411</v>
       </c>
       <c r="N223" s="4"/>
@@ -10248,7 +10266,7 @@
       <c r="G224" s="4" t="n">
         <v>152</v>
       </c>
-      <c r="H224" s="4" t="n">
+      <c r="H224" s="5" t="n">
         <v>152</v>
       </c>
       <c r="I224" s="4" t="s">
@@ -10263,7 +10281,7 @@
       <c r="L224" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="M224" s="5" t="s">
+      <c r="M224" s="6" t="s">
         <v>250</v>
       </c>
       <c r="N224" s="4"/>
@@ -10290,7 +10308,7 @@
       <c r="G225" s="4" t="n">
         <v>153</v>
       </c>
-      <c r="H225" s="4" t="n">
+      <c r="H225" s="5" t="n">
         <v>153</v>
       </c>
       <c r="I225" s="4" t="s">
@@ -10305,7 +10323,7 @@
       <c r="L225" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M225" s="5" t="s">
+      <c r="M225" s="6" t="s">
         <v>414</v>
       </c>
       <c r="N225" s="4"/>
@@ -10332,7 +10350,7 @@
       <c r="G226" s="4" t="n">
         <v>154</v>
       </c>
-      <c r="H226" s="4" t="n">
+      <c r="H226" s="5" t="n">
         <v>154</v>
       </c>
       <c r="I226" s="4" t="s">
@@ -10347,7 +10365,7 @@
       <c r="L226" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="M226" s="5" t="s">
+      <c r="M226" s="6" t="s">
         <v>417</v>
       </c>
       <c r="N226" s="4"/>
@@ -10374,7 +10392,7 @@
       <c r="G227" s="4" t="n">
         <v>155</v>
       </c>
-      <c r="H227" s="4" t="n">
+      <c r="H227" s="5" t="n">
         <v>155</v>
       </c>
       <c r="I227" s="4" t="s">
@@ -10387,7 +10405,7 @@
         <v>24</v>
       </c>
       <c r="L227" s="4"/>
-      <c r="M227" s="5" t="s">
+      <c r="M227" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N227" s="4"/>
@@ -10406,7 +10424,7 @@
       <c r="E228" s="0"/>
       <c r="F228" s="0"/>
       <c r="G228" s="0"/>
-      <c r="H228" s="0"/>
+      <c r="H228" s="7"/>
       <c r="I228" s="4" t="s">
         <v>418</v>
       </c>
@@ -10419,7 +10437,7 @@
       <c r="L228" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M228" s="5" t="s">
+      <c r="M228" s="6" t="s">
         <v>420</v>
       </c>
       <c r="N228" s="4"/>
@@ -10446,7 +10464,7 @@
       <c r="G229" s="4" t="n">
         <v>156</v>
       </c>
-      <c r="H229" s="4" t="n">
+      <c r="H229" s="5" t="n">
         <v>156</v>
       </c>
       <c r="I229" s="4" t="s">
@@ -10461,7 +10479,7 @@
       <c r="L229" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="M229" s="5" t="s">
+      <c r="M229" s="6" t="s">
         <v>421</v>
       </c>
       <c r="N229" s="4"/>
@@ -10488,7 +10506,7 @@
       <c r="G230" s="4" t="n">
         <v>157</v>
       </c>
-      <c r="H230" s="4" t="n">
+      <c r="H230" s="5" t="n">
         <v>157</v>
       </c>
       <c r="I230" s="4" t="s">
@@ -10501,7 +10519,7 @@
         <v>37</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="5"/>
+      <c r="M230" s="6"/>
       <c r="N230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10526,7 +10544,7 @@
       <c r="G231" s="4" t="n">
         <v>158</v>
       </c>
-      <c r="H231" s="4" t="n">
+      <c r="H231" s="5" t="n">
         <v>158</v>
       </c>
       <c r="I231" s="4" t="s">
@@ -10541,7 +10559,7 @@
       <c r="L231" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M231" s="5" t="s">
+      <c r="M231" s="6" t="s">
         <v>363</v>
       </c>
       <c r="N231" s="4"/>
@@ -10568,7 +10586,7 @@
       <c r="G232" s="4" t="n">
         <v>159</v>
       </c>
-      <c r="H232" s="4" t="n">
+      <c r="H232" s="5" t="n">
         <v>159</v>
       </c>
       <c r="I232" s="4" t="s">
@@ -10583,7 +10601,7 @@
       <c r="L232" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M232" s="5" t="s">
+      <c r="M232" s="6" t="s">
         <v>323</v>
       </c>
       <c r="N232" s="4"/>
@@ -10602,7 +10620,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
-      <c r="H233" s="4"/>
+      <c r="H233" s="5"/>
       <c r="I233" s="4" t="s">
         <v>423</v>
       </c>
@@ -10615,7 +10633,7 @@
       <c r="L233" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="M233" s="5" t="s">
+      <c r="M233" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N233" s="4"/>
@@ -10642,7 +10660,7 @@
       <c r="G234" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="H234" s="4" t="n">
+      <c r="H234" s="5" t="n">
         <v>160</v>
       </c>
       <c r="I234" s="4" t="s">
@@ -10657,7 +10675,7 @@
       <c r="L234" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="M234" s="5" t="s">
+      <c r="M234" s="6" t="s">
         <v>428</v>
       </c>
       <c r="N234" s="4"/>
@@ -10684,7 +10702,7 @@
       <c r="G235" s="4" t="n">
         <v>161</v>
       </c>
-      <c r="H235" s="4" t="n">
+      <c r="H235" s="5" t="n">
         <v>161</v>
       </c>
       <c r="I235" s="4" t="s">
@@ -10697,7 +10715,7 @@
         <v>37</v>
       </c>
       <c r="L235" s="4"/>
-      <c r="M235" s="5"/>
+      <c r="M235" s="6"/>
       <c r="N235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10722,7 +10740,7 @@
       <c r="G236" s="4" t="n">
         <v>162</v>
       </c>
-      <c r="H236" s="4" t="n">
+      <c r="H236" s="5" t="n">
         <v>162</v>
       </c>
       <c r="I236" s="4" t="s">
@@ -10737,7 +10755,7 @@
       <c r="L236" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M236" s="5" t="s">
+      <c r="M236" s="6" t="s">
         <v>394</v>
       </c>
       <c r="N236" s="4"/>
@@ -10756,7 +10774,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
-      <c r="H237" s="4"/>
+      <c r="H237" s="5"/>
       <c r="I237" s="4" t="s">
         <v>429</v>
       </c>
@@ -10769,7 +10787,7 @@
       <c r="L237" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="M237" s="5" t="s">
+      <c r="M237" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N237" s="4"/>
@@ -10796,7 +10814,7 @@
       <c r="G238" s="4" t="n">
         <v>163</v>
       </c>
-      <c r="H238" s="4" t="n">
+      <c r="H238" s="5" t="n">
         <v>163</v>
       </c>
       <c r="I238" s="4" t="s">
@@ -10809,7 +10827,7 @@
         <v>24</v>
       </c>
       <c r="L238" s="4"/>
-      <c r="M238" s="5" t="s">
+      <c r="M238" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N238" s="4"/>
@@ -10828,7 +10846,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
-      <c r="H239" s="4"/>
+      <c r="H239" s="5"/>
       <c r="I239" s="4" t="s">
         <v>430</v>
       </c>
@@ -10839,7 +10857,7 @@
         <v>24</v>
       </c>
       <c r="L239" s="4"/>
-      <c r="M239" s="5" t="s">
+      <c r="M239" s="6" t="s">
         <v>76</v>
       </c>
       <c r="N239" s="4"/>
@@ -10866,7 +10884,7 @@
       <c r="G240" s="4" t="n">
         <v>164</v>
       </c>
-      <c r="H240" s="4" t="n">
+      <c r="H240" s="5" t="n">
         <v>164</v>
       </c>
       <c r="I240" s="4" t="s">
@@ -10881,7 +10899,7 @@
       <c r="L240" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M240" s="5" t="s">
+      <c r="M240" s="6" t="s">
         <v>433</v>
       </c>
       <c r="N240" s="4"/>
@@ -10908,7 +10926,7 @@
       <c r="G241" s="4" t="n">
         <v>165</v>
       </c>
-      <c r="H241" s="4" t="n">
+      <c r="H241" s="5" t="n">
         <v>165</v>
       </c>
       <c r="I241" s="4" t="s">
@@ -10923,7 +10941,7 @@
       <c r="L241" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="M241" s="5" t="s">
+      <c r="M241" s="6" t="s">
         <v>437</v>
       </c>
       <c r="N241" s="4"/>
@@ -10950,7 +10968,7 @@
       <c r="G242" s="4" t="n">
         <v>166</v>
       </c>
-      <c r="H242" s="4" t="n">
+      <c r="H242" s="5" t="n">
         <v>166</v>
       </c>
       <c r="I242" s="4" t="s">
@@ -10965,7 +10983,7 @@
       <c r="L242" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M242" s="5" t="s">
+      <c r="M242" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N242" s="4"/>
@@ -10992,7 +11010,7 @@
       <c r="G243" s="4" t="n">
         <v>167</v>
       </c>
-      <c r="H243" s="4" t="n">
+      <c r="H243" s="5" t="n">
         <v>167</v>
       </c>
       <c r="I243" s="4" t="s">
@@ -11007,7 +11025,7 @@
       <c r="L243" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M243" s="5" t="s">
+      <c r="M243" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N243" s="4"/>
@@ -11034,7 +11052,7 @@
       <c r="G244" s="4" t="n">
         <v>168</v>
       </c>
-      <c r="H244" s="4" t="n">
+      <c r="H244" s="5" t="n">
         <v>168</v>
       </c>
       <c r="I244" s="4" t="s">
@@ -11047,7 +11065,7 @@
         <v>24</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="5" t="s">
+      <c r="M244" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N244" s="4"/>
@@ -11066,7 +11084,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
-      <c r="H245" s="4"/>
+      <c r="H245" s="5"/>
       <c r="I245" s="4" t="s">
         <v>439</v>
       </c>
@@ -11079,7 +11097,7 @@
       <c r="L245" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="M245" s="5" t="s">
+      <c r="M245" s="6" t="s">
         <v>441</v>
       </c>
       <c r="N245" s="4"/>
@@ -11106,7 +11124,7 @@
       <c r="G246" s="4" t="n">
         <v>169</v>
       </c>
-      <c r="H246" s="4" t="n">
+      <c r="H246" s="5" t="n">
         <v>169</v>
       </c>
       <c r="I246" s="4" t="s">
@@ -11119,7 +11137,7 @@
         <v>37</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="5" t="s">
+      <c r="M246" s="6" t="s">
         <v>442</v>
       </c>
       <c r="N246" s="4"/>
@@ -11146,7 +11164,7 @@
       <c r="G247" s="4" t="n">
         <v>170</v>
       </c>
-      <c r="H247" s="4" t="n">
+      <c r="H247" s="5" t="n">
         <v>170</v>
       </c>
       <c r="I247" s="4" t="s">
@@ -11161,7 +11179,7 @@
       <c r="L247" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M247" s="5" t="s">
+      <c r="M247" s="6" t="s">
         <v>231</v>
       </c>
       <c r="N247" s="4"/>
@@ -11188,7 +11206,7 @@
       <c r="G248" s="4" t="n">
         <v>171</v>
       </c>
-      <c r="H248" s="4" t="n">
+      <c r="H248" s="5" t="n">
         <v>171</v>
       </c>
       <c r="I248" s="4" t="s">
@@ -11203,7 +11221,7 @@
       <c r="L248" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M248" s="5" t="s">
+      <c r="M248" s="6" t="s">
         <v>443</v>
       </c>
       <c r="N248" s="4"/>
@@ -11230,7 +11248,7 @@
       <c r="G249" s="4" t="n">
         <v>172</v>
       </c>
-      <c r="H249" s="4" t="n">
+      <c r="H249" s="5" t="n">
         <v>172</v>
       </c>
       <c r="I249" s="4" t="s">
@@ -11245,7 +11263,7 @@
       <c r="L249" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M249" s="5"/>
+      <c r="M249" s="6"/>
       <c r="N249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11262,7 +11280,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
-      <c r="H250" s="4"/>
+      <c r="H250" s="5"/>
       <c r="I250" s="4" t="s">
         <v>444</v>
       </c>
@@ -11275,7 +11293,7 @@
       <c r="L250" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="M250" s="5" t="s">
+      <c r="M250" s="6" t="s">
         <v>446</v>
       </c>
       <c r="N250" s="4"/>
@@ -11302,7 +11320,7 @@
       <c r="G251" s="4" t="n">
         <v>173</v>
       </c>
-      <c r="H251" s="4" t="n">
+      <c r="H251" s="5" t="n">
         <v>173</v>
       </c>
       <c r="I251" s="4" t="s">
@@ -11317,7 +11335,7 @@
       <c r="L251" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="M251" s="5" t="s">
+      <c r="M251" s="6" t="s">
         <v>54</v>
       </c>
       <c r="N251" s="4"/>
@@ -11344,7 +11362,7 @@
       <c r="G252" s="4" t="n">
         <v>174</v>
       </c>
-      <c r="H252" s="4" t="n">
+      <c r="H252" s="5" t="n">
         <v>174</v>
       </c>
       <c r="I252" s="4" t="s">
@@ -11357,7 +11375,7 @@
         <v>24</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="5" t="s">
+      <c r="M252" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N252" s="4"/>
@@ -11376,7 +11394,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
+      <c r="H253" s="5"/>
       <c r="I253" s="4" t="s">
         <v>448</v>
       </c>
@@ -11389,7 +11407,7 @@
       <c r="L253" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="M253" s="5" t="s">
+      <c r="M253" s="6" t="s">
         <v>60</v>
       </c>
       <c r="N253" s="4"/>
@@ -11416,7 +11434,7 @@
       <c r="G254" s="4" t="n">
         <v>175</v>
       </c>
-      <c r="H254" s="4" t="n">
+      <c r="H254" s="5" t="n">
         <v>175</v>
       </c>
       <c r="I254" s="4" t="s">
@@ -11429,7 +11447,7 @@
         <v>24</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="5" t="s">
+      <c r="M254" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N254" s="4"/>
@@ -11448,7 +11466,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
+      <c r="H255" s="5"/>
       <c r="I255" s="4" t="s">
         <v>449</v>
       </c>
@@ -11461,7 +11479,7 @@
       <c r="L255" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M255" s="5" t="s">
+      <c r="M255" s="6" t="s">
         <v>451</v>
       </c>
       <c r="N255" s="4"/>
@@ -11488,7 +11506,7 @@
       <c r="G256" s="4" t="n">
         <v>176</v>
       </c>
-      <c r="H256" s="4" t="n">
+      <c r="H256" s="5" t="n">
         <v>176</v>
       </c>
       <c r="I256" s="4" t="s">
@@ -11503,7 +11521,7 @@
       <c r="L256" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="M256" s="5" t="s">
+      <c r="M256" s="6" t="s">
         <v>454</v>
       </c>
       <c r="N256" s="4"/>
@@ -11530,7 +11548,7 @@
       <c r="G257" s="4" t="n">
         <v>177</v>
       </c>
-      <c r="H257" s="4" t="n">
+      <c r="H257" s="5" t="n">
         <v>177</v>
       </c>
       <c r="I257" s="4" t="s">
@@ -11545,7 +11563,7 @@
       <c r="L257" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M257" s="5" t="s">
+      <c r="M257" s="6" t="s">
         <v>191</v>
       </c>
       <c r="N257" s="4"/>
@@ -11572,7 +11590,7 @@
       <c r="G258" s="4" t="n">
         <v>178</v>
       </c>
-      <c r="H258" s="4" t="n">
+      <c r="H258" s="5" t="n">
         <v>178</v>
       </c>
       <c r="I258" s="4" t="s">
@@ -11587,7 +11605,7 @@
       <c r="L258" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M258" s="5" t="s">
+      <c r="M258" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N258" s="4"/>
@@ -11606,7 +11624,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
-      <c r="H259" s="4"/>
+      <c r="H259" s="5"/>
       <c r="I259" s="4" t="s">
         <v>456</v>
       </c>
@@ -11619,7 +11637,7 @@
       <c r="L259" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="M259" s="5" t="s">
+      <c r="M259" s="6" t="s">
         <v>458</v>
       </c>
       <c r="N259" s="4"/>
@@ -11646,7 +11664,7 @@
       <c r="G260" s="4" t="n">
         <v>179</v>
       </c>
-      <c r="H260" s="4" t="n">
+      <c r="H260" s="5" t="n">
         <v>179</v>
       </c>
       <c r="I260" s="4" t="s">
@@ -11661,7 +11679,7 @@
       <c r="L260" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M260" s="5" t="s">
+      <c r="M260" s="6" t="s">
         <v>394</v>
       </c>
       <c r="N260" s="4"/>
@@ -11688,7 +11706,7 @@
       <c r="G261" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="H261" s="4" t="n">
+      <c r="H261" s="5" t="n">
         <v>180</v>
       </c>
       <c r="I261" s="4" t="s">
@@ -11703,7 +11721,7 @@
       <c r="L261" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M261" s="5" t="s">
+      <c r="M261" s="6" t="s">
         <v>462</v>
       </c>
       <c r="N261" s="4"/>
@@ -11730,7 +11748,7 @@
       <c r="G262" s="4" t="n">
         <v>181</v>
       </c>
-      <c r="H262" s="4" t="n">
+      <c r="H262" s="5" t="n">
         <v>181</v>
       </c>
       <c r="I262" s="4" t="s">
@@ -11743,7 +11761,7 @@
         <v>37</v>
       </c>
       <c r="L262" s="4"/>
-      <c r="M262" s="5" t="s">
+      <c r="M262" s="6" t="s">
         <v>352</v>
       </c>
       <c r="N262" s="4"/>
@@ -11762,7 +11780,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
-      <c r="H263" s="4"/>
+      <c r="H263" s="5"/>
       <c r="I263" s="4" t="s">
         <v>339</v>
       </c>
@@ -11775,7 +11793,7 @@
       <c r="L263" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="M263" s="5" t="s">
+      <c r="M263" s="6" t="s">
         <v>463</v>
       </c>
       <c r="N263" s="4"/>
@@ -11802,7 +11820,7 @@
       <c r="G264" s="4" t="n">
         <v>182</v>
       </c>
-      <c r="H264" s="4" t="n">
+      <c r="H264" s="5" t="n">
         <v>182</v>
       </c>
       <c r="I264" s="4" t="s">
@@ -11815,7 +11833,7 @@
         <v>37</v>
       </c>
       <c r="L264" s="4"/>
-      <c r="M264" s="5" t="s">
+      <c r="M264" s="6" t="s">
         <v>464</v>
       </c>
       <c r="N264" s="4"/>
@@ -11842,7 +11860,7 @@
       <c r="G265" s="4" t="n">
         <v>183</v>
       </c>
-      <c r="H265" s="4" t="n">
+      <c r="H265" s="5" t="n">
         <v>183</v>
       </c>
       <c r="I265" s="4" t="s">
@@ -11857,7 +11875,7 @@
       <c r="L265" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="M265" s="5" t="s">
+      <c r="M265" s="6" t="s">
         <v>468</v>
       </c>
       <c r="N265" s="4"/>
@@ -11884,7 +11902,7 @@
       <c r="G266" s="4" t="n">
         <v>184</v>
       </c>
-      <c r="H266" s="4" t="n">
+      <c r="H266" s="5" t="n">
         <v>184</v>
       </c>
       <c r="I266" s="4" t="s">
@@ -11899,7 +11917,7 @@
       <c r="L266" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M266" s="5" t="s">
+      <c r="M266" s="6" t="s">
         <v>323</v>
       </c>
       <c r="N266" s="4"/>
@@ -11918,7 +11936,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
-      <c r="H267" s="4"/>
+      <c r="H267" s="5"/>
       <c r="I267" s="4" t="s">
         <v>423</v>
       </c>
@@ -11931,7 +11949,7 @@
       <c r="L267" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="M267" s="5" t="s">
+      <c r="M267" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N267" s="4"/>
@@ -11958,7 +11976,7 @@
       <c r="G268" s="4" t="n">
         <v>185</v>
       </c>
-      <c r="H268" s="4" t="n">
+      <c r="H268" s="5" t="n">
         <v>185</v>
       </c>
       <c r="I268" s="4" t="s">
@@ -11971,7 +11989,7 @@
         <v>24</v>
       </c>
       <c r="L268" s="4"/>
-      <c r="M268" s="5" t="s">
+      <c r="M268" s="6" t="s">
         <v>57</v>
       </c>
       <c r="N268" s="4"/>
@@ -11990,7 +12008,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
-      <c r="H269" s="4"/>
+      <c r="H269" s="5"/>
       <c r="I269" s="4" t="s">
         <v>469</v>
       </c>
@@ -12003,7 +12021,7 @@
       <c r="L269" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M269" s="5" t="s">
+      <c r="M269" s="6" t="s">
         <v>471</v>
       </c>
       <c r="N269" s="4"/>
@@ -12022,7 +12040,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
-      <c r="H270" s="4"/>
+      <c r="H270" s="5"/>
       <c r="I270" s="4" t="s">
         <v>469</v>
       </c>
@@ -12035,7 +12053,7 @@
       <c r="L270" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="M270" s="5" t="s">
+      <c r="M270" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N270" s="4"/>
@@ -12062,7 +12080,7 @@
       <c r="G271" s="4" t="n">
         <v>186</v>
       </c>
-      <c r="H271" s="4" t="n">
+      <c r="H271" s="5" t="n">
         <v>186</v>
       </c>
       <c r="I271" s="4" t="s">
@@ -12075,7 +12093,7 @@
         <v>24</v>
       </c>
       <c r="L271" s="4"/>
-      <c r="M271" s="5" t="s">
+      <c r="M271" s="6" t="s">
         <v>74</v>
       </c>
       <c r="N271" s="4"/>
@@ -12094,7 +12112,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
+      <c r="H272" s="5"/>
       <c r="I272" s="4" t="s">
         <v>472</v>
       </c>
@@ -12107,7 +12125,7 @@
       <c r="L272" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M272" s="5" t="s">
+      <c r="M272" s="6" t="s">
         <v>474</v>
       </c>
       <c r="N272" s="4"/>
@@ -12134,7 +12152,7 @@
       <c r="G273" s="4" t="n">
         <v>187</v>
       </c>
-      <c r="H273" s="4" t="n">
+      <c r="H273" s="5" t="n">
         <v>187</v>
       </c>
       <c r="I273" s="4" t="s">
@@ -12149,7 +12167,7 @@
       <c r="L273" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="M273" s="5" t="s">
+      <c r="M273" s="6" t="s">
         <v>477</v>
       </c>
       <c r="N273" s="4"/>
@@ -12176,7 +12194,7 @@
       <c r="G274" s="4" t="n">
         <v>188</v>
       </c>
-      <c r="H274" s="4" t="n">
+      <c r="H274" s="5" t="n">
         <v>188</v>
       </c>
       <c r="I274" s="4" t="s">
@@ -12191,7 +12209,7 @@
       <c r="L274" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M274" s="5" t="s">
+      <c r="M274" s="6" t="s">
         <v>477</v>
       </c>
       <c r="N274" s="4"/>
@@ -12218,7 +12236,7 @@
       <c r="G275" s="4" t="n">
         <v>189</v>
       </c>
-      <c r="H275" s="4" t="n">
+      <c r="H275" s="5" t="n">
         <v>189</v>
       </c>
       <c r="I275" s="4" t="s">
@@ -12231,7 +12249,7 @@
         <v>37</v>
       </c>
       <c r="L275" s="4"/>
-      <c r="M275" s="5" t="s">
+      <c r="M275" s="6" t="s">
         <v>481</v>
       </c>
       <c r="N275" s="4"/>
@@ -12250,7 +12268,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
+      <c r="H276" s="5"/>
       <c r="I276" s="4" t="s">
         <v>480</v>
       </c>
@@ -12263,7 +12281,7 @@
       <c r="L276" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M276" s="5" t="s">
+      <c r="M276" s="6" t="s">
         <v>394</v>
       </c>
       <c r="N276" s="4"/>
@@ -12290,7 +12308,7 @@
       <c r="G277" s="4" t="n">
         <v>190</v>
       </c>
-      <c r="H277" s="4" t="n">
+      <c r="H277" s="5" t="n">
         <v>190</v>
       </c>
       <c r="I277" s="4" t="s">
@@ -12303,7 +12321,7 @@
         <v>37</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="5" t="s">
+      <c r="M277" s="6" t="s">
         <v>145</v>
       </c>
       <c r="N277" s="4"/>
@@ -12322,7 +12340,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
-      <c r="H278" s="4"/>
+      <c r="H278" s="5"/>
       <c r="I278" s="4" t="s">
         <v>482</v>
       </c>
@@ -12335,7 +12353,7 @@
       <c r="L278" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="M278" s="5" t="s">
+      <c r="M278" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N278" s="4"/>
@@ -12362,7 +12380,7 @@
       <c r="G279" s="4" t="n">
         <v>191</v>
       </c>
-      <c r="H279" s="4" t="n">
+      <c r="H279" s="5" t="n">
         <v>191</v>
       </c>
       <c r="I279" s="4" t="s">
@@ -12375,7 +12393,7 @@
         <v>37</v>
       </c>
       <c r="L279" s="4"/>
-      <c r="M279" s="5" t="s">
+      <c r="M279" s="6" t="s">
         <v>484</v>
       </c>
       <c r="N279" s="4"/>
@@ -12402,7 +12420,7 @@
       <c r="G280" s="4" t="n">
         <v>192</v>
       </c>
-      <c r="H280" s="4" t="n">
+      <c r="H280" s="5" t="n">
         <v>192</v>
       </c>
       <c r="I280" s="4" t="s">
@@ -12415,7 +12433,7 @@
         <v>134</v>
       </c>
       <c r="L280" s="4"/>
-      <c r="M280" s="5" t="s">
+      <c r="M280" s="6" t="s">
         <v>487</v>
       </c>
       <c r="N280" s="4"/>
@@ -12447,1749 +12465,1749 @@
       <c r="L281" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="M281" s="5" t="s">
+      <c r="M281" s="6" t="s">
         <v>47</v>
       </c>
       <c r="N281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M282" s="9"/>
+      <c r="M282" s="11"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M283" s="9"/>
+      <c r="M283" s="11"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M284" s="9"/>
+      <c r="M284" s="11"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M285" s="9"/>
+      <c r="M285" s="11"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M286" s="9"/>
+      <c r="M286" s="11"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M287" s="9"/>
+      <c r="M287" s="11"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M288" s="9"/>
+      <c r="M288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M289" s="9"/>
+      <c r="M289" s="11"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M290" s="9"/>
+      <c r="M290" s="11"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M291" s="9"/>
+      <c r="M291" s="11"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M292" s="9"/>
+      <c r="M292" s="11"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M293" s="9"/>
+      <c r="M293" s="11"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M294" s="9"/>
+      <c r="M294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M295" s="9"/>
+      <c r="M295" s="11"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M296" s="9"/>
+      <c r="M296" s="11"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M297" s="9"/>
+      <c r="M297" s="11"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M298" s="9"/>
+      <c r="M298" s="11"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M299" s="9"/>
+      <c r="M299" s="11"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M300" s="9"/>
+      <c r="M300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M301" s="9"/>
+      <c r="M301" s="11"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M302" s="9"/>
+      <c r="M302" s="11"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M303" s="9"/>
+      <c r="M303" s="11"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M304" s="9"/>
+      <c r="M304" s="11"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M305" s="9"/>
+      <c r="M305" s="11"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M306" s="9"/>
+      <c r="M306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M307" s="9"/>
+      <c r="M307" s="11"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M308" s="9"/>
+      <c r="M308" s="11"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M309" s="9"/>
+      <c r="M309" s="11"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M310" s="9"/>
+      <c r="M310" s="11"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M311" s="9"/>
+      <c r="M311" s="11"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M312" s="9"/>
+      <c r="M312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M313" s="9"/>
+      <c r="M313" s="11"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M314" s="9"/>
+      <c r="M314" s="11"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M315" s="9"/>
+      <c r="M315" s="11"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M316" s="9"/>
+      <c r="M316" s="11"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M317" s="9"/>
+      <c r="M317" s="11"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M318" s="9"/>
+      <c r="M318" s="11"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M319" s="9"/>
+      <c r="M319" s="11"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M320" s="9"/>
+      <c r="M320" s="11"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M321" s="9"/>
+      <c r="M321" s="11"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M322" s="9"/>
+      <c r="M322" s="11"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M323" s="9"/>
+      <c r="M323" s="11"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M324" s="9"/>
+      <c r="M324" s="11"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M325" s="9"/>
+      <c r="M325" s="11"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M326" s="9"/>
+      <c r="M326" s="11"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M327" s="9"/>
+      <c r="M327" s="11"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M328" s="9"/>
+      <c r="M328" s="11"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M329" s="9"/>
+      <c r="M329" s="11"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M330" s="9"/>
+      <c r="M330" s="11"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M331" s="9"/>
+      <c r="M331" s="11"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M332" s="9"/>
+      <c r="M332" s="11"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M333" s="9"/>
+      <c r="M333" s="11"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M334" s="9"/>
+      <c r="M334" s="11"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M335" s="9"/>
+      <c r="M335" s="11"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M336" s="9"/>
+      <c r="M336" s="11"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M337" s="9"/>
+      <c r="M337" s="11"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M338" s="9"/>
+      <c r="M338" s="11"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M339" s="9"/>
+      <c r="M339" s="11"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M340" s="9"/>
+      <c r="M340" s="11"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M341" s="9"/>
+      <c r="M341" s="11"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M342" s="9"/>
+      <c r="M342" s="11"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M343" s="9"/>
+      <c r="M343" s="11"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M344" s="9"/>
+      <c r="M344" s="11"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M345" s="9"/>
+      <c r="M345" s="11"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M346" s="9"/>
+      <c r="M346" s="11"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M347" s="9"/>
+      <c r="M347" s="11"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M348" s="9"/>
+      <c r="M348" s="11"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M349" s="9"/>
+      <c r="M349" s="11"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M350" s="9"/>
+      <c r="M350" s="11"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M351" s="9"/>
+      <c r="M351" s="11"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M352" s="9"/>
+      <c r="M352" s="11"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M353" s="9"/>
+      <c r="M353" s="11"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M354" s="9"/>
+      <c r="M354" s="11"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M355" s="9"/>
+      <c r="M355" s="11"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M356" s="9"/>
+      <c r="M356" s="11"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M357" s="9"/>
+      <c r="M357" s="11"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M358" s="9"/>
+      <c r="M358" s="11"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M359" s="9"/>
+      <c r="M359" s="11"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M360" s="9"/>
+      <c r="M360" s="11"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M361" s="9"/>
+      <c r="M361" s="11"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M362" s="9"/>
+      <c r="M362" s="11"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M363" s="9"/>
+      <c r="M363" s="11"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M364" s="9"/>
+      <c r="M364" s="11"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M365" s="9"/>
+      <c r="M365" s="11"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M366" s="9"/>
+      <c r="M366" s="11"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M367" s="9"/>
+      <c r="M367" s="11"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M368" s="9"/>
+      <c r="M368" s="11"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M369" s="9"/>
+      <c r="M369" s="11"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M370" s="9"/>
+      <c r="M370" s="11"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M371" s="9"/>
+      <c r="M371" s="11"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M372" s="9"/>
+      <c r="M372" s="11"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M373" s="9"/>
+      <c r="M373" s="11"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M374" s="9"/>
+      <c r="M374" s="11"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M375" s="9"/>
+      <c r="M375" s="11"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M376" s="9"/>
+      <c r="M376" s="11"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M377" s="9"/>
+      <c r="M377" s="11"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M378" s="9"/>
+      <c r="M378" s="11"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M379" s="9"/>
+      <c r="M379" s="11"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M380" s="9"/>
+      <c r="M380" s="11"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M381" s="9"/>
+      <c r="M381" s="11"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M382" s="9"/>
+      <c r="M382" s="11"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M383" s="9"/>
+      <c r="M383" s="11"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M384" s="9"/>
+      <c r="M384" s="11"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M385" s="9"/>
+      <c r="M385" s="11"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M386" s="9"/>
+      <c r="M386" s="11"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M387" s="9"/>
+      <c r="M387" s="11"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M388" s="9"/>
+      <c r="M388" s="11"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M389" s="9"/>
+      <c r="M389" s="11"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M390" s="9"/>
+      <c r="M390" s="11"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M391" s="9"/>
+      <c r="M391" s="11"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M392" s="9"/>
+      <c r="M392" s="11"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M393" s="9"/>
+      <c r="M393" s="11"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M394" s="9"/>
+      <c r="M394" s="11"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M395" s="9"/>
+      <c r="M395" s="11"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M396" s="9"/>
+      <c r="M396" s="11"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M397" s="9"/>
+      <c r="M397" s="11"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M398" s="9"/>
+      <c r="M398" s="11"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M399" s="9"/>
+      <c r="M399" s="11"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M400" s="9"/>
+      <c r="M400" s="11"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M401" s="9"/>
+      <c r="M401" s="11"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M402" s="9"/>
+      <c r="M402" s="11"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M403" s="9"/>
+      <c r="M403" s="11"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M404" s="9"/>
+      <c r="M404" s="11"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M405" s="9"/>
+      <c r="M405" s="11"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M406" s="9"/>
+      <c r="M406" s="11"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M407" s="9"/>
+      <c r="M407" s="11"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M408" s="9"/>
+      <c r="M408" s="11"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M409" s="9"/>
+      <c r="M409" s="11"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M410" s="9"/>
+      <c r="M410" s="11"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M411" s="9"/>
+      <c r="M411" s="11"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M412" s="9"/>
+      <c r="M412" s="11"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M413" s="9"/>
+      <c r="M413" s="11"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M414" s="9"/>
+      <c r="M414" s="11"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M415" s="9"/>
+      <c r="M415" s="11"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M416" s="9"/>
+      <c r="M416" s="11"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M417" s="9"/>
+      <c r="M417" s="11"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M418" s="9"/>
+      <c r="M418" s="11"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M419" s="9"/>
+      <c r="M419" s="11"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M420" s="9"/>
+      <c r="M420" s="11"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M421" s="9"/>
+      <c r="M421" s="11"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M422" s="9"/>
+      <c r="M422" s="11"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M423" s="9"/>
+      <c r="M423" s="11"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M424" s="9"/>
+      <c r="M424" s="11"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M425" s="9"/>
+      <c r="M425" s="11"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M426" s="9"/>
+      <c r="M426" s="11"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M427" s="9"/>
+      <c r="M427" s="11"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M428" s="9"/>
+      <c r="M428" s="11"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M429" s="9"/>
+      <c r="M429" s="11"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M430" s="9"/>
+      <c r="M430" s="11"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M431" s="9"/>
+      <c r="M431" s="11"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M432" s="9"/>
+      <c r="M432" s="11"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M433" s="9"/>
+      <c r="M433" s="11"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M434" s="9"/>
+      <c r="M434" s="11"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M435" s="9"/>
+      <c r="M435" s="11"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M436" s="9"/>
+      <c r="M436" s="11"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M437" s="9"/>
+      <c r="M437" s="11"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M438" s="9"/>
+      <c r="M438" s="11"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M439" s="9"/>
+      <c r="M439" s="11"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M440" s="9"/>
+      <c r="M440" s="11"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M441" s="9"/>
+      <c r="M441" s="11"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M442" s="9"/>
+      <c r="M442" s="11"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M443" s="9"/>
+      <c r="M443" s="11"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M444" s="9"/>
+      <c r="M444" s="11"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M445" s="9"/>
+      <c r="M445" s="11"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M446" s="9"/>
+      <c r="M446" s="11"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M447" s="9"/>
+      <c r="M447" s="11"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M448" s="9"/>
+      <c r="M448" s="11"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M449" s="9"/>
+      <c r="M449" s="11"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M450" s="9"/>
+      <c r="M450" s="11"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M451" s="9"/>
+      <c r="M451" s="11"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M452" s="9"/>
+      <c r="M452" s="11"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M453" s="9"/>
+      <c r="M453" s="11"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M454" s="9"/>
+      <c r="M454" s="11"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M455" s="9"/>
+      <c r="M455" s="11"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M456" s="9"/>
+      <c r="M456" s="11"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M457" s="9"/>
+      <c r="M457" s="11"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M458" s="9"/>
+      <c r="M458" s="11"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M459" s="9"/>
+      <c r="M459" s="11"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M460" s="9"/>
+      <c r="M460" s="11"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M461" s="9"/>
+      <c r="M461" s="11"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M462" s="9"/>
+      <c r="M462" s="11"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M463" s="9"/>
+      <c r="M463" s="11"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M464" s="9"/>
+      <c r="M464" s="11"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M465" s="9"/>
+      <c r="M465" s="11"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M466" s="9"/>
+      <c r="M466" s="11"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M467" s="9"/>
+      <c r="M467" s="11"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M468" s="9"/>
+      <c r="M468" s="11"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M469" s="9"/>
+      <c r="M469" s="11"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M470" s="9"/>
+      <c r="M470" s="11"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M471" s="9"/>
+      <c r="M471" s="11"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M472" s="9"/>
+      <c r="M472" s="11"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M473" s="9"/>
+      <c r="M473" s="11"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M474" s="9"/>
+      <c r="M474" s="11"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M475" s="9"/>
+      <c r="M475" s="11"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M476" s="9"/>
+      <c r="M476" s="11"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M477" s="9"/>
+      <c r="M477" s="11"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M478" s="9"/>
+      <c r="M478" s="11"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M479" s="9"/>
+      <c r="M479" s="11"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M480" s="9"/>
+      <c r="M480" s="11"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M481" s="9"/>
+      <c r="M481" s="11"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M482" s="9"/>
+      <c r="M482" s="11"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M483" s="9"/>
+      <c r="M483" s="11"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M484" s="9"/>
+      <c r="M484" s="11"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M485" s="9"/>
+      <c r="M485" s="11"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M486" s="9"/>
+      <c r="M486" s="11"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M487" s="9"/>
+      <c r="M487" s="11"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M488" s="9"/>
+      <c r="M488" s="11"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M489" s="9"/>
+      <c r="M489" s="11"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M490" s="9"/>
+      <c r="M490" s="11"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M491" s="9"/>
+      <c r="M491" s="11"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M492" s="9"/>
+      <c r="M492" s="11"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M493" s="9"/>
+      <c r="M493" s="11"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M494" s="9"/>
+      <c r="M494" s="11"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M495" s="9"/>
+      <c r="M495" s="11"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M496" s="9"/>
+      <c r="M496" s="11"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M497" s="9"/>
+      <c r="M497" s="11"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M498" s="9"/>
+      <c r="M498" s="11"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M499" s="9"/>
+      <c r="M499" s="11"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M500" s="9"/>
+      <c r="M500" s="11"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M501" s="9"/>
+      <c r="M501" s="11"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M502" s="9"/>
+      <c r="M502" s="11"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M503" s="9"/>
+      <c r="M503" s="11"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M504" s="9"/>
+      <c r="M504" s="11"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M505" s="9"/>
+      <c r="M505" s="11"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M506" s="9"/>
+      <c r="M506" s="11"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M507" s="9"/>
+      <c r="M507" s="11"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M508" s="9"/>
+      <c r="M508" s="11"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M509" s="9"/>
+      <c r="M509" s="11"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M510" s="9"/>
+      <c r="M510" s="11"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M511" s="9"/>
+      <c r="M511" s="11"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M512" s="9"/>
+      <c r="M512" s="11"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M513" s="9"/>
+      <c r="M513" s="11"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M514" s="9"/>
+      <c r="M514" s="11"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M515" s="9"/>
+      <c r="M515" s="11"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M516" s="9"/>
+      <c r="M516" s="11"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M517" s="9"/>
+      <c r="M517" s="11"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M518" s="9"/>
+      <c r="M518" s="11"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M519" s="9"/>
+      <c r="M519" s="11"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M520" s="9"/>
+      <c r="M520" s="11"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M521" s="9"/>
+      <c r="M521" s="11"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M522" s="9"/>
+      <c r="M522" s="11"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M523" s="9"/>
+      <c r="M523" s="11"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M524" s="9"/>
+      <c r="M524" s="11"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M525" s="9"/>
+      <c r="M525" s="11"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M526" s="9"/>
+      <c r="M526" s="11"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M527" s="9"/>
+      <c r="M527" s="11"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M528" s="9"/>
+      <c r="M528" s="11"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M529" s="9"/>
+      <c r="M529" s="11"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M530" s="9"/>
+      <c r="M530" s="11"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M531" s="9"/>
+      <c r="M531" s="11"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M532" s="9"/>
+      <c r="M532" s="11"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M533" s="9"/>
+      <c r="M533" s="11"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M534" s="9"/>
+      <c r="M534" s="11"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M535" s="9"/>
+      <c r="M535" s="11"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M536" s="9"/>
+      <c r="M536" s="11"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M537" s="9"/>
+      <c r="M537" s="11"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M538" s="9"/>
+      <c r="M538" s="11"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M539" s="9"/>
+      <c r="M539" s="11"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M540" s="9"/>
+      <c r="M540" s="11"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M541" s="9"/>
+      <c r="M541" s="11"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M542" s="9"/>
+      <c r="M542" s="11"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M543" s="9"/>
+      <c r="M543" s="11"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M544" s="9"/>
+      <c r="M544" s="11"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M545" s="9"/>
+      <c r="M545" s="11"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M546" s="9"/>
+      <c r="M546" s="11"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M547" s="9"/>
+      <c r="M547" s="11"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M548" s="9"/>
+      <c r="M548" s="11"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M549" s="9"/>
+      <c r="M549" s="11"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M550" s="9"/>
+      <c r="M550" s="11"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M551" s="9"/>
+      <c r="M551" s="11"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M552" s="9"/>
+      <c r="M552" s="11"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M553" s="9"/>
+      <c r="M553" s="11"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M554" s="9"/>
+      <c r="M554" s="11"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M555" s="9"/>
+      <c r="M555" s="11"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M556" s="9"/>
+      <c r="M556" s="11"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M557" s="9"/>
+      <c r="M557" s="11"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M558" s="9"/>
+      <c r="M558" s="11"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M559" s="9"/>
+      <c r="M559" s="11"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M560" s="9"/>
+      <c r="M560" s="11"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M561" s="9"/>
+      <c r="M561" s="11"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M562" s="9"/>
+      <c r="M562" s="11"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M563" s="9"/>
+      <c r="M563" s="11"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M564" s="9"/>
+      <c r="M564" s="11"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M565" s="9"/>
+      <c r="M565" s="11"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M566" s="9"/>
+      <c r="M566" s="11"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M567" s="9"/>
+      <c r="M567" s="11"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M568" s="9"/>
+      <c r="M568" s="11"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M569" s="9"/>
+      <c r="M569" s="11"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M570" s="9"/>
+      <c r="M570" s="11"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M571" s="9"/>
+      <c r="M571" s="11"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M572" s="9"/>
+      <c r="M572" s="11"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M573" s="9"/>
+      <c r="M573" s="11"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M574" s="9"/>
+      <c r="M574" s="11"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M575" s="9"/>
+      <c r="M575" s="11"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M576" s="9"/>
+      <c r="M576" s="11"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M577" s="9"/>
+      <c r="M577" s="11"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M578" s="9"/>
+      <c r="M578" s="11"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M579" s="9"/>
+      <c r="M579" s="11"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M580" s="9"/>
+      <c r="M580" s="11"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M581" s="9"/>
+      <c r="M581" s="11"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M582" s="9"/>
+      <c r="M582" s="11"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M583" s="9"/>
+      <c r="M583" s="11"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M584" s="9"/>
+      <c r="M584" s="11"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M585" s="9"/>
+      <c r="M585" s="11"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M586" s="9"/>
+      <c r="M586" s="11"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M587" s="9"/>
+      <c r="M587" s="11"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M588" s="9"/>
+      <c r="M588" s="11"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M589" s="9"/>
+      <c r="M589" s="11"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M590" s="9"/>
+      <c r="M590" s="11"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M591" s="9"/>
+      <c r="M591" s="11"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M592" s="9"/>
+      <c r="M592" s="11"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M593" s="9"/>
+      <c r="M593" s="11"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M594" s="9"/>
+      <c r="M594" s="11"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M595" s="9"/>
+      <c r="M595" s="11"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M596" s="9"/>
+      <c r="M596" s="11"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M597" s="9"/>
+      <c r="M597" s="11"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M598" s="9"/>
+      <c r="M598" s="11"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M599" s="9"/>
+      <c r="M599" s="11"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M600" s="9"/>
+      <c r="M600" s="11"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M601" s="9"/>
+      <c r="M601" s="11"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M602" s="9"/>
+      <c r="M602" s="11"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M603" s="9"/>
+      <c r="M603" s="11"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M604" s="9"/>
+      <c r="M604" s="11"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M605" s="9"/>
+      <c r="M605" s="11"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M606" s="9"/>
+      <c r="M606" s="11"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M607" s="9"/>
+      <c r="M607" s="11"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M608" s="9"/>
+      <c r="M608" s="11"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M609" s="9"/>
+      <c r="M609" s="11"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M610" s="9"/>
+      <c r="M610" s="11"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M611" s="9"/>
+      <c r="M611" s="11"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M612" s="9"/>
+      <c r="M612" s="11"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M613" s="9"/>
+      <c r="M613" s="11"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M614" s="9"/>
+      <c r="M614" s="11"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M615" s="9"/>
+      <c r="M615" s="11"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M616" s="9"/>
+      <c r="M616" s="11"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M617" s="9"/>
+      <c r="M617" s="11"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M618" s="9"/>
+      <c r="M618" s="11"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M619" s="9"/>
+      <c r="M619" s="11"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M620" s="9"/>
+      <c r="M620" s="11"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M621" s="9"/>
+      <c r="M621" s="11"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M622" s="9"/>
+      <c r="M622" s="11"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M623" s="9"/>
+      <c r="M623" s="11"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M624" s="9"/>
+      <c r="M624" s="11"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M625" s="9"/>
+      <c r="M625" s="11"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M626" s="9"/>
+      <c r="M626" s="11"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M627" s="9"/>
+      <c r="M627" s="11"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M628" s="9"/>
+      <c r="M628" s="11"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M629" s="9"/>
+      <c r="M629" s="11"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M630" s="9"/>
+      <c r="M630" s="11"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M631" s="9"/>
+      <c r="M631" s="11"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M632" s="9"/>
+      <c r="M632" s="11"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M633" s="9"/>
+      <c r="M633" s="11"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M634" s="9"/>
+      <c r="M634" s="11"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M635" s="9"/>
+      <c r="M635" s="11"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M636" s="9"/>
+      <c r="M636" s="11"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M637" s="9"/>
+      <c r="M637" s="11"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M638" s="9"/>
+      <c r="M638" s="11"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M639" s="9"/>
+      <c r="M639" s="11"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M640" s="9"/>
+      <c r="M640" s="11"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M641" s="9"/>
+      <c r="M641" s="11"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M642" s="9"/>
+      <c r="M642" s="11"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M643" s="9"/>
+      <c r="M643" s="11"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M644" s="9"/>
+      <c r="M644" s="11"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M645" s="9"/>
+      <c r="M645" s="11"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M646" s="9"/>
+      <c r="M646" s="11"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M647" s="9"/>
+      <c r="M647" s="11"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M648" s="9"/>
+      <c r="M648" s="11"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M649" s="9"/>
+      <c r="M649" s="11"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M650" s="9"/>
+      <c r="M650" s="11"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M651" s="9"/>
+      <c r="M651" s="11"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M652" s="9"/>
+      <c r="M652" s="11"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M653" s="9"/>
+      <c r="M653" s="11"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M654" s="9"/>
+      <c r="M654" s="11"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M655" s="9"/>
+      <c r="M655" s="11"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M656" s="9"/>
+      <c r="M656" s="11"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M657" s="9"/>
+      <c r="M657" s="11"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M658" s="9"/>
+      <c r="M658" s="11"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M659" s="9"/>
+      <c r="M659" s="11"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M660" s="9"/>
+      <c r="M660" s="11"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M661" s="9"/>
+      <c r="M661" s="11"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M662" s="9"/>
+      <c r="M662" s="11"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M663" s="9"/>
+      <c r="M663" s="11"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M664" s="9"/>
+      <c r="M664" s="11"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M665" s="9"/>
+      <c r="M665" s="11"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M666" s="9"/>
+      <c r="M666" s="11"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M667" s="9"/>
+      <c r="M667" s="11"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M668" s="9"/>
+      <c r="M668" s="11"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M669" s="9"/>
+      <c r="M669" s="11"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M670" s="9"/>
+      <c r="M670" s="11"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M671" s="9"/>
+      <c r="M671" s="11"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M672" s="9"/>
+      <c r="M672" s="11"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M673" s="9"/>
+      <c r="M673" s="11"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M674" s="9"/>
+      <c r="M674" s="11"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M675" s="9"/>
+      <c r="M675" s="11"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M676" s="9"/>
+      <c r="M676" s="11"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M677" s="9"/>
+      <c r="M677" s="11"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M678" s="9"/>
+      <c r="M678" s="11"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M679" s="9"/>
+      <c r="M679" s="11"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M680" s="9"/>
+      <c r="M680" s="11"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M681" s="9"/>
+      <c r="M681" s="11"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M682" s="9"/>
+      <c r="M682" s="11"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M683" s="9"/>
+      <c r="M683" s="11"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M684" s="9"/>
+      <c r="M684" s="11"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M685" s="9"/>
+      <c r="M685" s="11"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M686" s="9"/>
+      <c r="M686" s="11"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M687" s="9"/>
+      <c r="M687" s="11"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M688" s="9"/>
+      <c r="M688" s="11"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M689" s="9"/>
+      <c r="M689" s="11"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M690" s="9"/>
+      <c r="M690" s="11"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M691" s="9"/>
+      <c r="M691" s="11"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M692" s="9"/>
+      <c r="M692" s="11"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M693" s="9"/>
+      <c r="M693" s="11"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M694" s="9"/>
+      <c r="M694" s="11"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M695" s="9"/>
+      <c r="M695" s="11"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M696" s="9"/>
+      <c r="M696" s="11"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M697" s="9"/>
+      <c r="M697" s="11"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M698" s="9"/>
+      <c r="M698" s="11"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M699" s="9"/>
+      <c r="M699" s="11"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M700" s="9"/>
+      <c r="M700" s="11"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M701" s="9"/>
+      <c r="M701" s="11"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M702" s="9"/>
+      <c r="M702" s="11"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M703" s="9"/>
+      <c r="M703" s="11"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M704" s="9"/>
+      <c r="M704" s="11"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M705" s="9"/>
+      <c r="M705" s="11"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M706" s="9"/>
+      <c r="M706" s="11"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M707" s="9"/>
+      <c r="M707" s="11"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M708" s="9"/>
+      <c r="M708" s="11"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M709" s="9"/>
+      <c r="M709" s="11"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M710" s="9"/>
+      <c r="M710" s="11"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M711" s="9"/>
+      <c r="M711" s="11"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M712" s="9"/>
+      <c r="M712" s="11"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M713" s="9"/>
+      <c r="M713" s="11"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M714" s="9"/>
+      <c r="M714" s="11"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M715" s="9"/>
+      <c r="M715" s="11"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M716" s="9"/>
+      <c r="M716" s="11"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M717" s="9"/>
+      <c r="M717" s="11"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M718" s="9"/>
+      <c r="M718" s="11"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M719" s="9"/>
+      <c r="M719" s="11"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M720" s="9"/>
+      <c r="M720" s="11"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M721" s="9"/>
+      <c r="M721" s="11"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M722" s="9"/>
+      <c r="M722" s="11"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M723" s="9"/>
+      <c r="M723" s="11"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M724" s="9"/>
+      <c r="M724" s="11"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M725" s="9"/>
+      <c r="M725" s="11"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M726" s="9"/>
+      <c r="M726" s="11"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M727" s="9"/>
+      <c r="M727" s="11"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M728" s="9"/>
+      <c r="M728" s="11"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M729" s="9"/>
+      <c r="M729" s="11"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M730" s="9"/>
+      <c r="M730" s="11"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M731" s="9"/>
+      <c r="M731" s="11"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M732" s="9"/>
+      <c r="M732" s="11"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M733" s="9"/>
+      <c r="M733" s="11"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M734" s="9"/>
+      <c r="M734" s="11"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M735" s="9"/>
+      <c r="M735" s="11"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M736" s="9"/>
+      <c r="M736" s="11"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M737" s="9"/>
+      <c r="M737" s="11"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M738" s="9"/>
+      <c r="M738" s="11"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M739" s="9"/>
+      <c r="M739" s="11"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M740" s="9"/>
+      <c r="M740" s="11"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M741" s="9"/>
+      <c r="M741" s="11"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M742" s="9"/>
+      <c r="M742" s="11"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M743" s="9"/>
+      <c r="M743" s="11"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M744" s="9"/>
+      <c r="M744" s="11"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M745" s="9"/>
+      <c r="M745" s="11"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M746" s="9"/>
+      <c r="M746" s="11"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M747" s="9"/>
+      <c r="M747" s="11"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M748" s="9"/>
+      <c r="M748" s="11"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M749" s="9"/>
+      <c r="M749" s="11"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M750" s="9"/>
+      <c r="M750" s="11"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M751" s="9"/>
+      <c r="M751" s="11"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M752" s="9"/>
+      <c r="M752" s="11"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M753" s="9"/>
+      <c r="M753" s="11"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M754" s="9"/>
+      <c r="M754" s="11"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M755" s="9"/>
+      <c r="M755" s="11"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M756" s="9"/>
+      <c r="M756" s="11"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M757" s="9"/>
+      <c r="M757" s="11"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M758" s="9"/>
+      <c r="M758" s="11"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M759" s="9"/>
+      <c r="M759" s="11"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M760" s="9"/>
+      <c r="M760" s="11"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M761" s="9"/>
+      <c r="M761" s="11"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M762" s="9"/>
+      <c r="M762" s="11"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M763" s="9"/>
+      <c r="M763" s="11"/>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M764" s="9"/>
+      <c r="M764" s="11"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M765" s="9"/>
+      <c r="M765" s="11"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M766" s="9"/>
+      <c r="M766" s="11"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M767" s="9"/>
+      <c r="M767" s="11"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M768" s="9"/>
+      <c r="M768" s="11"/>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M769" s="9"/>
+      <c r="M769" s="11"/>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M770" s="9"/>
+      <c r="M770" s="11"/>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M771" s="9"/>
+      <c r="M771" s="11"/>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M772" s="9"/>
+      <c r="M772" s="11"/>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M773" s="9"/>
+      <c r="M773" s="11"/>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M774" s="9"/>
+      <c r="M774" s="11"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M775" s="9"/>
+      <c r="M775" s="11"/>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M776" s="9"/>
+      <c r="M776" s="11"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M777" s="9"/>
+      <c r="M777" s="11"/>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M778" s="9"/>
+      <c r="M778" s="11"/>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M779" s="9"/>
+      <c r="M779" s="11"/>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M780" s="9"/>
+      <c r="M780" s="11"/>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M781" s="9"/>
+      <c r="M781" s="11"/>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M782" s="9"/>
+      <c r="M782" s="11"/>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M783" s="9"/>
+      <c r="M783" s="11"/>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M784" s="9"/>
+      <c r="M784" s="11"/>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M785" s="9"/>
+      <c r="M785" s="11"/>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M786" s="9"/>
+      <c r="M786" s="11"/>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M787" s="9"/>
+      <c r="M787" s="11"/>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M788" s="9"/>
+      <c r="M788" s="11"/>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M789" s="9"/>
+      <c r="M789" s="11"/>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M790" s="9"/>
+      <c r="M790" s="11"/>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M791" s="9"/>
+      <c r="M791" s="11"/>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M792" s="9"/>
+      <c r="M792" s="11"/>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M793" s="9"/>
+      <c r="M793" s="11"/>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M794" s="9"/>
+      <c r="M794" s="11"/>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M795" s="9"/>
+      <c r="M795" s="11"/>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M796" s="9"/>
+      <c r="M796" s="11"/>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M797" s="9"/>
+      <c r="M797" s="11"/>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M798" s="9"/>
+      <c r="M798" s="11"/>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M799" s="9"/>
+      <c r="M799" s="11"/>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M800" s="9"/>
+      <c r="M800" s="11"/>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M801" s="9"/>
+      <c r="M801" s="11"/>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M802" s="9"/>
+      <c r="M802" s="11"/>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M803" s="9"/>
+      <c r="M803" s="11"/>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M804" s="9"/>
+      <c r="M804" s="11"/>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M805" s="9"/>
+      <c r="M805" s="11"/>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M806" s="9"/>
+      <c r="M806" s="11"/>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M807" s="9"/>
+      <c r="M807" s="11"/>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M808" s="9"/>
+      <c r="M808" s="11"/>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M809" s="9"/>
+      <c r="M809" s="11"/>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M810" s="9"/>
+      <c r="M810" s="11"/>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M811" s="9"/>
+      <c r="M811" s="11"/>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M812" s="9"/>
+      <c r="M812" s="11"/>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M813" s="9"/>
+      <c r="M813" s="11"/>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M814" s="9"/>
+      <c r="M814" s="11"/>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M815" s="9"/>
+      <c r="M815" s="11"/>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M816" s="9"/>
+      <c r="M816" s="11"/>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M817" s="9"/>
+      <c r="M817" s="11"/>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M818" s="9"/>
+      <c r="M818" s="11"/>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M819" s="9"/>
+      <c r="M819" s="11"/>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M820" s="9"/>
+      <c r="M820" s="11"/>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M821" s="9"/>
+      <c r="M821" s="11"/>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M822" s="9"/>
+      <c r="M822" s="11"/>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M823" s="9"/>
+      <c r="M823" s="11"/>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M824" s="9"/>
+      <c r="M824" s="11"/>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M825" s="9"/>
+      <c r="M825" s="11"/>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M826" s="9"/>
+      <c r="M826" s="11"/>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M827" s="9"/>
+      <c r="M827" s="11"/>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M828" s="9"/>
+      <c r="M828" s="11"/>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M829" s="9"/>
+      <c r="M829" s="11"/>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M830" s="9"/>
+      <c r="M830" s="11"/>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M831" s="9"/>
+      <c r="M831" s="11"/>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M832" s="9"/>
+      <c r="M832" s="11"/>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M833" s="9"/>
+      <c r="M833" s="11"/>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M834" s="9"/>
+      <c r="M834" s="11"/>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M835" s="9"/>
+      <c r="M835" s="11"/>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M836" s="9"/>
+      <c r="M836" s="11"/>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M837" s="9"/>
+      <c r="M837" s="11"/>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M838" s="9"/>
+      <c r="M838" s="11"/>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M839" s="9"/>
+      <c r="M839" s="11"/>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M840" s="9"/>
+      <c r="M840" s="11"/>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M841" s="9"/>
+      <c r="M841" s="11"/>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M842" s="9"/>
+      <c r="M842" s="11"/>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M843" s="9"/>
+      <c r="M843" s="11"/>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M844" s="9"/>
+      <c r="M844" s="11"/>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M845" s="9"/>
+      <c r="M845" s="11"/>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M846" s="9"/>
+      <c r="M846" s="11"/>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M847" s="9"/>
+      <c r="M847" s="11"/>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M848" s="9"/>
+      <c r="M848" s="11"/>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M849" s="9"/>
+      <c r="M849" s="11"/>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M850" s="9"/>
+      <c r="M850" s="11"/>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M851" s="9"/>
+      <c r="M851" s="11"/>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M852" s="9"/>
+      <c r="M852" s="11"/>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M853" s="9"/>
+      <c r="M853" s="11"/>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M854" s="9"/>
+      <c r="M854" s="11"/>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M855" s="9"/>
+      <c r="M855" s="11"/>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M856" s="9"/>
+      <c r="M856" s="11"/>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M857" s="9"/>
+      <c r="M857" s="11"/>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M858" s="9"/>
+      <c r="M858" s="11"/>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M859" s="9"/>
+      <c r="M859" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
